--- a/testDLM.xlsx
+++ b/testDLM.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Source\Repos\CompFinance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sc\CompFinance-multiAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA7B095-8045-45C9-9157-19C984947604}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="917" yWindow="566" windowWidth="39720" windowHeight="23177" activeTab="1" xr2:uid="{5E2A6A88-A1B1-48B1-B19E-F13EED351994}"/>
+    <workbookView xWindow="915" yWindow="570" windowWidth="39720" windowHeight="23175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
   <si>
     <t>spots</t>
   </si>
@@ -132,16 +133,52 @@
   <si>
     <t>time</t>
   </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>skew</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>cpn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +215,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +253,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,46 +300,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="6" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Accent2" xfId="7" builtinId="33"/>
     <cellStyle name="Accent4" xfId="4" builtinId="41"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="6" builtinId="10"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -604,36 +659,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B77D7A-CA5C-4C25-BE20-B1CFC1211636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.61328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.07421875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.23046875" style="8"/>
-    <col min="10" max="10" width="15.84375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.23046875" style="8"/>
-    <col min="16" max="16" width="10.07421875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.07421875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.23046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="8"/>
+    <col min="10" max="10" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="8"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
       <c r="T3" t="str">
-        <f ca="1">_xll.xPutMultiStats(D4:F4,1,1,"stats")</f>
+        <f ca="1">_xll.xPutMultiStats(D4:F4,1,2,"stats")</f>
         <v>stats</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -646,19 +701,28 @@
       <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.4">
+      <c r="H4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.4">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J5" s="14">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -672,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H7" s="15">
         <v>0.25</v>
       </c>
@@ -686,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -712,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -726,7 +790,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -740,7 +804,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -762,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="D12" s="12">
         <v>0.8</v>
       </c>
@@ -780,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
       <c r="D13" s="12">
         <v>0.5</v>
       </c>
@@ -797,7 +861,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -808,12 +872,12 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,E5,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
+        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H5:J5,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
         <v>dlm</v>
       </c>
       <c r="E16" s="4"/>
@@ -829,19 +893,23 @@
       <c r="R16" s="9"/>
       <c r="T16" t="str">
         <f t="array" aca="1" ref="T16:V30" ca="1">_xll.xValue(D16,T3,U12,,,U13,U11)</f>
-        <v>google 1.00 1.00</v>
+        <v>google 1.00 2.00</v>
       </c>
       <c r="U16" s="9">
         <f ca="1"/>
-        <v>50.000099574697423</v>
+        <v>51.010164544377844</v>
       </c>
       <c r="V16" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
+      <c r="W16" s="7">
+        <f ca="1">D8*EXP(2*($D$5-H5))</f>
+        <v>51.010067001337788</v>
+      </c>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -857,19 +925,23 @@
       <c r="R17" s="9"/>
       <c r="T17" t="str">
         <f ca="1"/>
-        <v>amazon 1.00 1.00</v>
+        <v>amazon 1.00 2.00</v>
       </c>
       <c r="U17" s="9">
         <f ca="1"/>
-        <v>99.999903521604921</v>
+        <v>103.04535496549822</v>
       </c>
       <c r="V17" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
+      <c r="W17" s="7">
+        <f ca="1">E8*EXP(2*($D$5-I5))</f>
+        <v>103.0454533953517</v>
+      </c>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="str">
         <f t="array" aca="1" ref="C18:H30" ca="1">_xll.xViewDLM(D16)</f>
         <v/>
@@ -903,19 +975,23 @@
       <c r="R18" s="9"/>
       <c r="T18" t="str">
         <f ca="1"/>
-        <v>starbucks 1.00 1.00</v>
+        <v>starbucks 1.00 2.00</v>
       </c>
       <c r="U18" s="9">
         <f ca="1"/>
-        <v>25.000554128636949</v>
+        <v>25.633417938570012</v>
       </c>
       <c r="V18" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
+      <c r="W18" s="7">
+        <f ca="1">F8*EXP(2*($D$5-J5))</f>
+        <v>25.632878013110723</v>
+      </c>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="str">
         <f ca="1"/>
         <v>google</v>
@@ -949,11 +1025,11 @@
       <c r="R19" s="9"/>
       <c r="T19" t="str">
         <f ca="1"/>
-        <v>google google 1.00 1.00</v>
+        <v>google google 1.00 2.00</v>
       </c>
       <c r="U19" s="9">
         <f ca="1"/>
-        <v>2620.3231737246938</v>
+        <v>2717.4906033510347</v>
       </c>
       <c r="V19" t="e">
         <f ca="1"/>
@@ -961,7 +1037,7 @@
       </c>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
         <f ca="1"/>
         <v>amazon</v>
@@ -994,11 +1070,11 @@
       <c r="R20" s="9"/>
       <c r="T20" t="str">
         <f ca="1"/>
-        <v>amazon google 1.00 1.00</v>
+        <v>amazon google 1.00 2.00</v>
       </c>
       <c r="U20" s="9">
         <f ca="1"/>
-        <v>5125.879274336703</v>
+        <v>5382.1604930710328</v>
       </c>
       <c r="V20" t="e">
         <f ca="1"/>
@@ -1007,7 +1083,7 @@
       <c r="Y20" s="9"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C21" t="str">
         <f ca="1"/>
         <v>starbucks</v>
@@ -1040,11 +1116,11 @@
       <c r="R21" s="9"/>
       <c r="T21" t="str">
         <f ca="1"/>
-        <v>amazon amazon 1.00 1.00</v>
+        <v>amazon amazon 1.00 2.00</v>
       </c>
       <c r="U21" s="9">
         <f ca="1"/>
-        <v>10225.253685159829</v>
+        <v>10852.823468633802</v>
       </c>
       <c r="V21" t="e">
         <f ca="1"/>
@@ -1052,7 +1128,7 @@
       </c>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C22" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1085,11 +1161,11 @@
       <c r="R22" s="9"/>
       <c r="T22" t="str">
         <f ca="1"/>
-        <v>starbucks google 1.00 1.00</v>
+        <v>starbucks google 1.00 2.00</v>
       </c>
       <c r="U22" s="9">
         <f ca="1"/>
-        <v>1295.0708876934798</v>
+        <v>1350.5556695677483</v>
       </c>
       <c r="V22" t="e">
         <f ca="1"/>
@@ -1098,7 +1174,7 @@
       <c r="Y22" s="9"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C23" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1131,11 +1207,11 @@
       <c r="R23" s="9"/>
       <c r="T23" t="str">
         <f ca="1"/>
-        <v>starbucks amazon 1.00 1.00</v>
+        <v>starbucks amazon 1.00 2.00</v>
       </c>
       <c r="U23" s="9">
         <f ca="1"/>
-        <v>2571.62841284859</v>
+        <v>2712.5561131123955</v>
       </c>
       <c r="V23" t="e">
         <f ca="1"/>
@@ -1144,7 +1220,7 @@
       <c r="Y23" s="9"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C24" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1177,11 +1253,11 @@
       <c r="R24" s="9"/>
       <c r="T24" t="str">
         <f ca="1"/>
-        <v>starbucks starbucks 1.00 1.00</v>
+        <v>starbucks starbucks 1.00 2.00</v>
       </c>
       <c r="U24" s="9">
         <f ca="1"/>
-        <v>677.28172482972457</v>
+        <v>706.68175945278654</v>
       </c>
       <c r="V24" t="e">
         <f ca="1"/>
@@ -1189,7 +1265,7 @@
       </c>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C25" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1229,7 +1305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C26" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1269,7 +1345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1309,7 +1385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C28" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1349,7 +1425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C29" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1389,7 +1465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C30" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1429,11 +1505,11 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -1455,7 +1531,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="array" aca="1" ref="B33:B35" ca="1">TRANSPOSE(D8:F8)</f>
         <v>50</v>
@@ -1490,7 +1566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34">
         <f ca="1"/>
         <v>100</v>
@@ -1549,7 +1625,7 @@
       </c>
       <c r="R34" s="10">
         <f ca="1">W49</f>
-        <v>125.87414079632163</v>
+        <v>125.79998074714604</v>
       </c>
       <c r="V34" t="str">
         <f t="array" aca="1" ref="V34:V36" ca="1">TRANSPOSE(D4:F4)</f>
@@ -1557,10 +1633,10 @@
       </c>
       <c r="W34" s="9">
         <f ca="1">U16</f>
-        <v>50.000099574697423</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.4">
+        <v>51.010164544377844</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35">
         <f ca="1"/>
         <v>25</v>
@@ -1619,7 +1695,7 @@
       </c>
       <c r="R35" s="10">
         <f ca="1">Y49</f>
-        <v>71.575411998233449</v>
+        <v>71.15146265347903</v>
       </c>
       <c r="V35" t="str">
         <f ca="1"/>
@@ -1627,10 +1703,10 @@
       </c>
       <c r="W35" s="9">
         <f ca="1">U17</f>
-        <v>99.999903521604921</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.4">
+        <v>103.04535496549822</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J36" s="6" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +1736,7 @@
       </c>
       <c r="R36" s="10">
         <f ca="1">W50</f>
-        <v>45.040691839019473</v>
+        <v>42.990802686485267</v>
       </c>
       <c r="V36" t="str">
         <f ca="1"/>
@@ -1668,21 +1744,21 @@
       </c>
       <c r="W36" s="9">
         <f ca="1">U18</f>
-        <v>25.000554128636949</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.4">
+        <v>25.633417938570012</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="W38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1694,18 +1770,18 @@
       <c r="K39" s="6"/>
       <c r="W39" s="7">
         <f t="array" aca="1" ref="W39:Y39" ca="1">TRANSPOSE(U41:U43)</f>
-        <v>50.000099574697423</v>
+        <v>51.010164544377844</v>
       </c>
       <c r="X39" s="7">
         <f ca="1"/>
-        <v>99.999903521604921</v>
+        <v>103.04535496549822</v>
       </c>
       <c r="Y39" s="7">
         <f ca="1"/>
-        <v>25.000554128636949</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.4">
+        <v>25.633417938570012</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1728,7 +1804,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1740,7 +1816,7 @@
       <c r="K41" s="6"/>
       <c r="U41" s="7">
         <f t="array" aca="1" ref="U41:U43" ca="1">W34:W36</f>
-        <v>50.000099574697423</v>
+        <v>51.010164544377844</v>
       </c>
       <c r="V41" t="str">
         <f t="array" aca="1" ref="V41:V43" ca="1">V34:V36</f>
@@ -1748,18 +1824,18 @@
       </c>
       <c r="W41" s="9">
         <f ca="1">U19</f>
-        <v>2620.3231737246938</v>
+        <v>2717.4906033510347</v>
       </c>
       <c r="X41" s="9">
         <f ca="1">W42</f>
-        <v>5125.879274336703</v>
+        <v>5382.1604930710328</v>
       </c>
       <c r="Y41" s="9">
         <f ca="1">W43</f>
-        <v>1295.0708876934798</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.4">
+        <v>1350.5556695677483</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1771,7 +1847,7 @@
       <c r="K42" s="6"/>
       <c r="U42" s="7">
         <f ca="1"/>
-        <v>99.999903521604921</v>
+        <v>103.04535496549822</v>
       </c>
       <c r="V42" t="str">
         <f ca="1"/>
@@ -1779,18 +1855,18 @@
       </c>
       <c r="W42" s="9">
         <f ca="1">U20</f>
-        <v>5125.879274336703</v>
+        <v>5382.1604930710328</v>
       </c>
       <c r="X42" s="9">
         <f ca="1">U21</f>
-        <v>10225.253685159829</v>
+        <v>10852.823468633802</v>
       </c>
       <c r="Y42" s="9">
         <f ca="1">X43</f>
-        <v>2571.62841284859</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.4">
+        <v>2712.5561131123955</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1802,7 +1878,7 @@
       <c r="K43" s="6"/>
       <c r="U43" s="7">
         <f ca="1"/>
-        <v>25.000554128636949</v>
+        <v>25.633417938570012</v>
       </c>
       <c r="V43" t="str">
         <f ca="1"/>
@@ -1810,18 +1886,18 @@
       </c>
       <c r="W43" s="9">
         <f ca="1">U22</f>
-        <v>1295.0708876934798</v>
+        <v>1350.5556695677483</v>
       </c>
       <c r="X43" s="9">
         <f ca="1">U23</f>
-        <v>2571.62841284859</v>
+        <v>2712.5561131123955</v>
       </c>
       <c r="Y43" s="9">
         <f ca="1">U24</f>
-        <v>677.28172482972457</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.4">
+        <v>706.68175945278654</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1832,7 +1908,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1846,7 +1922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1858,18 +1934,18 @@
       <c r="K46" s="6"/>
       <c r="W46" s="7">
         <f t="array" aca="1" ref="W46:Y46" ca="1">W39:Y39</f>
-        <v>50.000099574697423</v>
+        <v>51.010164544377844</v>
       </c>
       <c r="X46" s="7">
         <f ca="1"/>
-        <v>99.999903521604921</v>
+        <v>103.04535496549822</v>
       </c>
       <c r="Y46" s="7">
         <f ca="1"/>
-        <v>25.000554128636949</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.4">
+        <v>25.633417938570012</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1892,7 +1968,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -1904,7 +1980,7 @@
       <c r="K48" s="6"/>
       <c r="U48" s="7">
         <f t="array" aca="1" ref="U48:U50" ca="1">U41:U43</f>
-        <v>50.000099574697423</v>
+        <v>51.010164544377844</v>
       </c>
       <c r="V48" t="str">
         <f t="array" aca="1" ref="V48:V50" ca="1">V41:V43</f>
@@ -1912,18 +1988,18 @@
       </c>
       <c r="W48" s="9">
         <f ca="1">W41-$U48*W$46</f>
-        <v>120.31321624503653</v>
+        <v>115.45371650653215</v>
       </c>
       <c r="X48" s="9">
         <f t="shared" ref="X48:Y48" ca="1" si="1">X41-$U48*X$46</f>
-        <v>125.87414079632163</v>
+        <v>125.79998074714604</v>
       </c>
       <c r="Y48" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>45.040691839019473</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.4">
+        <v>42.990802686485267</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1935,7 +2011,7 @@
       <c r="K49" s="6"/>
       <c r="U49" s="7">
         <f ca="1"/>
-        <v>99.999903521604921</v>
+        <v>103.04535496549822</v>
       </c>
       <c r="V49" t="str">
         <f ca="1"/>
@@ -1943,18 +2019,18 @@
       </c>
       <c r="W49" s="9">
         <f t="shared" ref="W49:Y49" ca="1" si="2">W42-$U49*W$46</f>
-        <v>125.87414079632163</v>
+        <v>125.79998074714604</v>
       </c>
       <c r="X49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>225.27298082953712</v>
+        <v>234.47828866827331</v>
       </c>
       <c r="Y49" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>71.575411998233449</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.4">
+        <v>71.15146265347903</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -1966,7 +2042,7 @@
       <c r="K50" s="6"/>
       <c r="U50" s="7">
         <f ca="1"/>
-        <v>25.000554128636949</v>
+        <v>25.633417938570012</v>
       </c>
       <c r="V50" t="str">
         <f ca="1"/>
@@ -1974,18 +2050,18 @@
       </c>
       <c r="W50" s="9">
         <f t="shared" ref="W50:Y50" ca="1" si="3">W43-$U50*W$46</f>
-        <v>45.040691839019473</v>
+        <v>42.990802686485267</v>
       </c>
       <c r="X50" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>71.575411998233449</v>
+        <v>71.15146265347903</v>
       </c>
       <c r="Y50" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>52.25401809081859</v>
-      </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.4">
+        <v>49.60964423938367</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1996,7 +2072,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2010,7 +2086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2022,18 +2098,18 @@
       <c r="K53" s="6"/>
       <c r="W53" s="7">
         <f ca="1">SQRT(W48)</f>
-        <v>10.96873813367046</v>
+        <v>10.744939111345962</v>
       </c>
       <c r="X53" s="7">
         <f ca="1">SQRT(X49)</f>
-        <v>15.009096602711875</v>
+        <v>15.312683914594244</v>
       </c>
       <c r="Y53" s="7">
         <f ca="1">SQRT(Y50)</f>
-        <v>7.2286940792108911</v>
-      </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.4">
+        <v>7.0434114063700459</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2056,7 +2132,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2068,11 +2144,11 @@
       <c r="K55" s="6"/>
       <c r="T55" s="10">
         <f ca="1">U55/W34</f>
-        <v>0.21937432579076693</v>
+        <v>0.2106430984357652</v>
       </c>
       <c r="U55" s="7">
         <f t="array" aca="1" ref="U55:U57" ca="1">TRANSPOSE(W53:Y53)</f>
-        <v>10.96873813367046</v>
+        <v>10.744939111345962</v>
       </c>
       <c r="V55" t="str">
         <f t="array" aca="1" ref="V55:V57" ca="1">V48:V50</f>
@@ -2080,18 +2156,18 @@
       </c>
       <c r="W55" s="9">
         <f ca="1">W48/$U55/W$53</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="X55" s="9">
         <f t="shared" ref="X55:Y55" ca="1" si="4">X48/$U55/X$53</f>
-        <v>0.76458416268260287</v>
+        <v>0.76458416268237628</v>
       </c>
       <c r="Y55" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56805258282551363</v>
-      </c>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.4">
+        <v>0.56805258282582616</v>
+      </c>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2103,11 +2179,11 @@
       <c r="K56" s="6"/>
       <c r="T56" s="10">
         <f ca="1">U56/W35</f>
-        <v>0.15009111083261364</v>
+        <v>0.14860139906084321</v>
       </c>
       <c r="U56" s="7">
         <f ca="1"/>
-        <v>15.009096602711875</v>
+        <v>15.312683914594244</v>
       </c>
       <c r="V56" t="str">
         <f ca="1"/>
@@ -2115,18 +2191,18 @@
       </c>
       <c r="W56" s="9">
         <f t="shared" ref="W56:Y56" ca="1" si="5">W49/$U56/W$53</f>
-        <v>0.76458416268260287</v>
+        <v>0.76458416268237639</v>
       </c>
       <c r="X56" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="Y56" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65970451754187531</v>
-      </c>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.4">
+        <v>0.65970451754100701</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2138,11 +2214,11 @@
       <c r="K57" s="6"/>
       <c r="T57" s="10">
         <f ca="1">U57/W36</f>
-        <v>0.28914135430825372</v>
+        <v>0.27477457057226801</v>
       </c>
       <c r="U57" s="7">
         <f ca="1"/>
-        <v>7.2286940792108911</v>
+        <v>7.0434114063700459</v>
       </c>
       <c r="V57" t="str">
         <f ca="1"/>
@@ -2150,18 +2226,18 @@
       </c>
       <c r="W57" s="9">
         <f t="shared" ref="W57:Y57" ca="1" si="6">W50/$U57/W$53</f>
-        <v>0.56805258282551363</v>
+        <v>0.56805258282582616</v>
       </c>
       <c r="X57" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65970451754187542</v>
+        <v>0.65970451754100701</v>
       </c>
       <c r="Y57" s="9">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2172,7 +2248,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2183,7 +2259,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2194,7 +2270,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2212,33 +2288,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73B7F35-7774-4C06-ABB8-FD62B0E85719}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.61328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.07421875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.23046875" style="8"/>
-    <col min="10" max="10" width="15.84375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.23046875" style="8"/>
-    <col min="16" max="16" width="10.07421875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.07421875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.3828125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="8"/>
+    <col min="10" max="10" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="8"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
       <c r="X2" t="s">
         <v>30</v>
       </c>
@@ -2246,7 +2322,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="T3" t="str">
         <f ca="1">_xll.xPutMultiStats(D4:F4,X3:X4,Y3:Y4,"stats")</f>
         <v>stats</v>
@@ -2258,7 +2337,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -2270,6 +2349,15 @@
       </c>
       <c r="F4" s="12" t="s">
         <v>10</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.01</v>
       </c>
       <c r="T4" t="str">
         <f ca="1">_xll.xPutMultiStats(D4:F4,X4,Y4,"stats2")</f>
@@ -2282,21 +2370,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="14">
         <v>0.02</v>
       </c>
-      <c r="E5" s="14">
-        <v>0.01</v>
-      </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -2319,7 +2404,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="H7" s="15">
         <v>0.25</v>
       </c>
@@ -2333,7 +2418,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -2373,7 +2458,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -2387,7 +2472,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -2409,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="D12" s="12">
         <v>0.3</v>
       </c>
@@ -2427,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
       <c r="D13" s="12">
         <v>0.1</v>
       </c>
@@ -2444,7 +2529,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -2455,12 +2540,12 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,E5,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
+        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H4:J4,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
         <v>dlm</v>
       </c>
       <c r="E16" s="4"/>
@@ -2493,7 +2578,7 @@
       </c>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2526,7 +2611,7 @@
       </c>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="str">
         <f t="array" aca="1" ref="C18:H30" ca="1">_xll.xViewDLM(D16)</f>
         <v/>
@@ -2577,7 +2662,7 @@
       </c>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="str">
         <f ca="1"/>
         <v>google</v>
@@ -2629,7 +2714,7 @@
       </c>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
         <f ca="1"/>
         <v>amazon</v>
@@ -2681,7 +2766,7 @@
       <c r="Y20" s="9"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C21" t="str">
         <f ca="1"/>
         <v>starbucks</v>
@@ -2732,7 +2817,7 @@
       </c>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C22" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -2784,7 +2869,7 @@
       <c r="Y22" s="9"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C23" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -2836,7 +2921,7 @@
       <c r="Y23" s="9"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C24" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -2887,7 +2972,7 @@
       </c>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C25" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -2950,7 +3035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C26" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3012,7 +3097,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3074,7 +3159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C28" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3128,7 +3213,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C29" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3182,7 +3267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C30" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3236,7 +3321,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="S31" s="7">
@@ -3266,7 +3351,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -3319,7 +3404,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="array" aca="1" ref="B33:B35" ca="1">TRANSPOSE(D8:F8)</f>
         <v>50</v>
@@ -3377,7 +3462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34">
         <f ca="1"/>
         <v>100</v>
@@ -3453,7 +3538,7 @@
         <v>2.5508998007966419E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35">
         <f ca="1"/>
         <v>25</v>
@@ -3529,7 +3614,7 @@
         <v>-1.1939321040121053E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J36" s="6" t="s">
         <v>26</v>
       </c>
@@ -3576,7 +3661,7 @@
         <v>3.2923555692051073E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="S37" s="7">
@@ -3602,7 +3687,7 @@
         <v>89.702914316706924</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="S38" s="7">
@@ -3624,7 +3709,7 @@
         <v>21.774727170018195</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3653,7 +3738,7 @@
         <v>109.19713309243889</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3682,7 +3767,7 @@
         <v>4.0007883135083375</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3711,7 +3796,7 @@
         <v>-5.947162173990364</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3740,7 +3825,7 @@
         <v>37.317708459104324</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3759,7 +3844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3778,7 +3863,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3797,7 +3882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3816,7 +3901,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3835,7 +3920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3854,7 +3939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -3873,7 +3958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3892,7 +3977,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3911,7 +3996,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3922,7 +4007,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3933,7 +4018,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3944,7 +4029,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3955,7 +4040,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3969,7 +4054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -3988,7 +4073,7 @@
         <v>50.250643505236695</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4007,7 +4092,7 @@
         <v>95.476143613249917</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -4026,7 +4111,7 @@
         <v>22.612857494939018</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -4037,7 +4122,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -4051,7 +4136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.25">
       <c r="W62" s="7">
         <f t="array" aca="1" ref="W62:Y62" ca="1">TRANSPOSE(U64:U66)</f>
         <v>50.250643505236695</v>
@@ -4065,7 +4150,7 @@
         <v>22.612857494939018</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.25">
       <c r="W63" t="str">
         <f t="array" aca="1" ref="W63:Y63" ca="1">TRANSPOSE(V64:V66)</f>
         <v>google</v>
@@ -4079,7 +4164,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:25" x14ac:dyDescent="0.25">
       <c r="U64" s="7">
         <f t="array" aca="1" ref="U64:U66" ca="1">W57:W59</f>
         <v>50.250643505236695</v>
@@ -4101,7 +4186,7 @@
         <v>1140.3114289264086</v>
       </c>
     </row>
-    <row r="65" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="65" spans="20:25" x14ac:dyDescent="0.25">
       <c r="U65" s="7">
         <f ca="1"/>
         <v>95.476143613249917</v>
@@ -4123,7 +4208,7 @@
         <v>2153.0412675187622</v>
       </c>
     </row>
-    <row r="66" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="66" spans="20:25" x14ac:dyDescent="0.25">
       <c r="U66" s="7">
         <f ca="1"/>
         <v>22.612857494939018</v>
@@ -4145,12 +4230,12 @@
         <v>548.65903254552404</v>
       </c>
     </row>
-    <row r="68" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="68" spans="20:25" x14ac:dyDescent="0.25">
       <c r="W68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="69" spans="20:25" x14ac:dyDescent="0.25">
       <c r="W69" s="7">
         <f t="array" aca="1" ref="W69:Y69" ca="1">W62:Y62</f>
         <v>50.250643505236695</v>
@@ -4164,7 +4249,7 @@
         <v>22.612857494939018</v>
       </c>
     </row>
-    <row r="70" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="70" spans="20:25" x14ac:dyDescent="0.25">
       <c r="W70" t="str">
         <f t="array" aca="1" ref="W70:Y70" ca="1">TRANSPOSE(V71:V73)</f>
         <v>google</v>
@@ -4178,7 +4263,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="71" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="71" spans="20:25" x14ac:dyDescent="0.25">
       <c r="U71" s="7">
         <f t="array" aca="1" ref="U71:U73" ca="1">U64:U66</f>
         <v>50.250643505236695</v>
@@ -4188,19 +4273,19 @@
         <v>google</v>
       </c>
       <c r="W71" s="9">
-        <f ca="1">W64-$U71*W$69</f>
+        <f t="shared" ref="W71:Y73" ca="1" si="1">W64-$U71*W$69</f>
         <v>53.139006281224283</v>
       </c>
       <c r="X71" s="9">
-        <f ca="1">X64-$U71*X$69</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.774727170018195</v>
       </c>
       <c r="Y71" s="9">
-        <f ca="1">Y64-$U71*Y$69</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4.0007883135083375</v>
       </c>
     </row>
-    <row r="72" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="72" spans="20:25" x14ac:dyDescent="0.25">
       <c r="U72" s="7">
         <f ca="1"/>
         <v>95.476143613249917</v>
@@ -4210,19 +4295,19 @@
         <v>amazon</v>
       </c>
       <c r="W72" s="9">
-        <f ca="1">W65-$U72*W$69</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.774727170018195</v>
       </c>
       <c r="X72" s="9">
-        <f ca="1">X65-$U72*X$69</f>
+        <f t="shared" ca="1" si="1"/>
         <v>109.19713309243889</v>
       </c>
       <c r="Y72" s="9">
-        <f ca="1">Y65-$U72*Y$69</f>
+        <f t="shared" ca="1" si="1"/>
         <v>-5.947162173990364</v>
       </c>
     </row>
-    <row r="73" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="73" spans="20:25" x14ac:dyDescent="0.25">
       <c r="U73" s="7">
         <f ca="1"/>
         <v>22.612857494939018</v>
@@ -4232,24 +4317,24 @@
         <v>starbucks</v>
       </c>
       <c r="W73" s="9">
-        <f ca="1">W66-$U73*W$69</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4.0007883135083375</v>
       </c>
       <c r="X73" s="9">
-        <f ca="1">X66-$U73*X$69</f>
+        <f t="shared" ca="1" si="1"/>
         <v>-5.947162173990364</v>
       </c>
       <c r="Y73" s="9">
-        <f ca="1">Y66-$U73*Y$69</f>
+        <f t="shared" ca="1" si="1"/>
         <v>37.317708459104324</v>
       </c>
     </row>
-    <row r="75" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="75" spans="20:25" x14ac:dyDescent="0.25">
       <c r="W75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="76" spans="20:25" x14ac:dyDescent="0.25">
       <c r="W76" s="7">
         <f ca="1">SQRT(W71)</f>
         <v>7.2896506282005236</v>
@@ -4263,7 +4348,7 @@
         <v>6.1088221826391642</v>
       </c>
     </row>
-    <row r="77" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="77" spans="20:25" x14ac:dyDescent="0.25">
       <c r="W77" t="str">
         <f t="array" aca="1" ref="W77:Y77" ca="1">TRANSPOSE(V78:V80)</f>
         <v>google</v>
@@ -4277,7 +4362,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="78" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="78" spans="20:25" x14ac:dyDescent="0.25">
       <c r="T78" s="10">
         <f ca="1">U78/W57</f>
         <v>0.14506581646941213</v>
@@ -4291,19 +4376,19 @@
         <v>google</v>
       </c>
       <c r="W78" s="9">
-        <f ca="1">W71/$U78/W$76</f>
+        <f t="shared" ref="W78:Y80" ca="1" si="2">W71/$U78/W$76</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="X78" s="9">
-        <f ca="1">X71/$U78/X$76</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.28585144347144498</v>
       </c>
       <c r="Y78" s="9">
-        <f ca="1">Y71/$U78/Y$76</f>
+        <f t="shared" ca="1" si="2"/>
         <v>8.98424061952042E-2</v>
       </c>
     </row>
-    <row r="79" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="79" spans="20:25" x14ac:dyDescent="0.25">
       <c r="T79" s="10">
         <f ca="1">U79/W58</f>
         <v>0.10944873568981481</v>
@@ -4317,19 +4402,19 @@
         <v>amazon</v>
       </c>
       <c r="W79" s="9">
-        <f ca="1">W72/$U79/W$76</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.28585144347144503</v>
       </c>
       <c r="X79" s="9">
-        <f ca="1">X72/$U79/X$76</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="Y79" s="9">
-        <f ca="1">Y72/$U79/Y$76</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-9.3163689561357926E-2</v>
       </c>
     </row>
-    <row r="80" spans="20:25" x14ac:dyDescent="0.4">
+    <row r="80" spans="20:25" x14ac:dyDescent="0.25">
       <c r="T80" s="10">
         <f ca="1">U80/W59</f>
         <v>0.27014817494898108</v>
@@ -4343,15 +4428,15 @@
         <v>starbucks</v>
       </c>
       <c r="W80" s="9">
-        <f ca="1">W73/$U80/W$76</f>
+        <f t="shared" ca="1" si="2"/>
         <v>8.9842406195204214E-2</v>
       </c>
       <c r="X80" s="9">
-        <f ca="1">X73/$U80/X$76</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-9.3163689561357926E-2</v>
       </c>
       <c r="Y80" s="9">
-        <f ca="1">Y73/$U80/Y$76</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4359,4 +4444,3342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:AA61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I4" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f t="array" aca="1" ref="I6:K6" ca="1">D4:F4</f>
+        <v>google</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f ca="1"/>
+        <v>amazon</v>
+      </c>
+      <c r="K6" s="8" t="str">
+        <f ca="1"/>
+        <v>starbucks</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H7" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12">
+        <v>100</v>
+      </c>
+      <c r="F8" s="12">
+        <v>25</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>-0.4</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f ca="1">D12</f>
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <f ca="1">D13</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f ca="1">E13</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H4:J4,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
+        <v>dlm</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f t="array" aca="1" ref="C23:C25" ca="1">TRANSPOSE(D4:F4)</f>
+        <v>google</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f ca="1"/>
+        <v>amazon</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f ca="1"/>
+        <v>starbucks</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="str">
+        <f ca="1">_xll.xPutBaskets(C23:C25,D23:D25,D30,D32:F32,"bkt")</f>
+        <v>bkt</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="25">
+        <f ca="1">E32*EXP(1.5%)</f>
+        <v>101.51130646157189</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <f ca="1">0.9*E32</f>
+        <v>90</v>
+      </c>
+      <c r="E32" s="25">
+        <f ca="1">E8</f>
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <f ca="1">1.1*E32</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="H32"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5"/>
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="7"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="24">
+        <f ca="1">_xll.sBlackImplied($D$30,N33,,Q33*EXP(2%),$N$31)</f>
+        <v>0.1499950776669661</v>
+      </c>
+      <c r="N33">
+        <f t="array" aca="1" ref="N33:N35" ca="1">TRANSPOSE(D32:F32)</f>
+        <v>90</v>
+      </c>
+      <c r="P33" s="22" t="str">
+        <f t="array" aca="1" ref="P33:W42" ca="1">_xll.xValue(D16,C27,TRUE,,,500000,TRUE)</f>
+        <v>basket strike 90.00</v>
+      </c>
+      <c r="Q33">
+        <f ca="1"/>
+        <v>12.962626451582683</v>
+      </c>
+      <c r="R33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z33">
+        <v>12.021580978275541</v>
+      </c>
+      <c r="AA33">
+        <f ca="1">Z33*EXP(-2%)</f>
+        <v>11.78353772595541</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="7"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="24">
+        <f ca="1">_xll.sBlackImplied($D$30,N34,,Q34*EXP(2%),$N$31)</f>
+        <v>0.14999706981344257</v>
+      </c>
+      <c r="N34">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="P34" t="str">
+        <f ca="1"/>
+        <v>basket strike 100.00</v>
+      </c>
+      <c r="Q34">
+        <f ca="1"/>
+        <v>6.6744408747219808</v>
+      </c>
+      <c r="R34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z34">
+        <v>5.9784072334057941</v>
+      </c>
+      <c r="AA34">
+        <f ca="1">Z34*EXP(-2%)</f>
+        <v>5.8600268386718684</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="7"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="24">
+        <f ca="1">_xll.sBlackImplied($D$30,N35,,Q35*EXP(2%),$N$31)</f>
+        <v>0.14999662729235297</v>
+      </c>
+      <c r="N35">
+        <f ca="1"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="P35" t="str">
+        <f ca="1"/>
+        <v>basket strike 110.00</v>
+      </c>
+      <c r="Q35">
+        <f ca="1"/>
+        <v>2.9024499984701597</v>
+      </c>
+      <c r="R35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z35">
+        <v>2.5001371685306366</v>
+      </c>
+      <c r="AA35">
+        <f ca="1">Z35*EXP(-2%)</f>
+        <v>2.4506311356786377</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="8"/>
+      <c r="O36" s="6"/>
+      <c r="P36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="P37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="23">
+        <f ca="1">M34</f>
+        <v>0.14999706981344257</v>
+      </c>
+      <c r="P38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="7">
+        <f ca="1">(M33-M35)/(N33-N35)*N34</f>
+        <v>7.7481269343537778E-6</v>
+      </c>
+      <c r="P39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="P40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="P41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="P42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:Y104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f t="array" aca="1" ref="I6:K6" ca="1">D4:F4</f>
+        <v>google</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f ca="1"/>
+        <v>amazon</v>
+      </c>
+      <c r="K6" s="8" t="str">
+        <f ca="1"/>
+        <v>starbucks</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H7" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12">
+        <v>100</v>
+      </c>
+      <c r="F8" s="12">
+        <v>25</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>-0.7</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-0.5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f ca="1">D12</f>
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <f ca="1">D13</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f ca="1">E13</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f ca="1">0.24%*100</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H4:J4,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
+        <v>dlm</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>10000</v>
+      </c>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" t="str">
+        <f ca="1">_xll.xPutAutocall(D4:F4,D20,D21,D22,D23,D24,D25,"autocall")</f>
+        <v>autocall</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="M27" t="str">
+        <f t="array" aca="1" ref="M27:Y46" ca="1">_xll.xValue(D16,D27,TRUE,,,N19,N20)</f>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N27" s="8">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D28" t="str">
+        <f ca="1">_xll.xPayoffIds(D27)</f>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="M28" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N28">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="M29" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N29">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="M30" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N30">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="M31" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N31">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="M32" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N32">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="M33" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N33">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="M34" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N34">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="M35" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N35">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="M36" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N36">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y36" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="M37" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N37">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="M38" s="23" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N38">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="M39" s="7" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N39">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="M40" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N40">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="M41" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N41">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y41" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="M42" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N42">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="M43" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N43">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y43" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="M44" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N44">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y44" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="M45" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N45">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="M46" t="str">
+        <f ca="1"/>
+        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
+      </c>
+      <c r="N46">
+        <f ca="1"/>
+        <v>0.99901885687797853</v>
+      </c>
+      <c r="O46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y46" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="M48" s="4" t="str">
+        <f t="array" aca="1" ref="M48:N104" ca="1">_xll.xAADrisk(D16,D27,D28,TRUE,,,N19,N20)</f>
+        <v>value</v>
+      </c>
+      <c r="N48" s="8">
+        <f ca="1"/>
+        <v>0.99901885687797842</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="M49" t="str">
+        <f ca="1"/>
+        <v>disc rate</v>
+      </c>
+      <c r="N49" s="24">
+        <f ca="1"/>
+        <v>-0.25285276289795638</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="M50" t="str">
+        <f ca="1"/>
+        <v>spot google</v>
+      </c>
+      <c r="N50" s="24">
+        <f ca="1"/>
+        <v>-8.0353327812490121E-17</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="M51" t="str">
+        <f ca="1"/>
+        <v>spot amazon</v>
+      </c>
+      <c r="N51" s="24">
+        <f ca="1"/>
+        <v>-0.12549520976595069</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="M52" t="str">
+        <f ca="1"/>
+        <v>spot starbucks</v>
+      </c>
+      <c r="N52" s="24">
+        <f ca="1"/>
+        <v>-1.8367529719398591E-16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="M53" t="str">
+        <f ca="1"/>
+        <v>repo rate google</v>
+      </c>
+      <c r="N53" s="24">
+        <f ca="1"/>
+        <v>5.8921361889013806E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="M54" t="str">
+        <f ca="1"/>
+        <v>repo rate amazon</v>
+      </c>
+      <c r="N54" s="24">
+        <f ca="1"/>
+        <v>2.1431416696016628E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="M55" t="str">
+        <f ca="1"/>
+        <v>repo rate starbucks</v>
+      </c>
+      <c r="N55" s="24">
+        <f ca="1"/>
+        <v>8.9478850682821368E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="M56" t="str">
+        <f ca="1"/>
+        <v>div google 0.25</v>
+      </c>
+      <c r="N56" s="24">
+        <f ca="1"/>
+        <v>-9.8429800092461675E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="M57" t="str">
+        <f ca="1"/>
+        <v>div amazon 0.25</v>
+      </c>
+      <c r="N57" s="24">
+        <f ca="1"/>
+        <v>-4.0976541852453585E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="M58" t="str">
+        <f ca="1"/>
+        <v>div starbucks 0.25</v>
+      </c>
+      <c r="N58" s="24">
+        <f ca="1"/>
+        <v>-0.12348427688330513</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="M59" t="str">
+        <f ca="1"/>
+        <v>div google 0.75</v>
+      </c>
+      <c r="N59">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="M60" t="str">
+        <f ca="1"/>
+        <v>div amazon 0.75</v>
+      </c>
+      <c r="N60">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="M61" t="str">
+        <f ca="1"/>
+        <v>div starbucks 0.75</v>
+      </c>
+      <c r="N61">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M62" t="str">
+        <f ca="1"/>
+        <v>ATM google</v>
+      </c>
+      <c r="N62" s="24">
+        <f ca="1"/>
+        <v>-0.13366938122897926</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M63" t="str">
+        <f ca="1"/>
+        <v>ATM amazon</v>
+      </c>
+      <c r="N63" s="24">
+        <f ca="1"/>
+        <v>-17.998636175838808</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M64" t="str">
+        <f ca="1"/>
+        <v>ATM starbucks</v>
+      </c>
+      <c r="N64" s="24">
+        <f ca="1"/>
+        <v>-0.17931991483527077</v>
+      </c>
+    </row>
+    <row r="65" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M65" t="str">
+        <f ca="1"/>
+        <v>skew google</v>
+      </c>
+      <c r="N65" s="24">
+        <f ca="1"/>
+        <v>7.7311312919634431E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M66" t="str">
+        <f ca="1"/>
+        <v>skew amazon</v>
+      </c>
+      <c r="N66" s="24">
+        <f ca="1"/>
+        <v>-10.736896306603478</v>
+      </c>
+    </row>
+    <row r="67" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M67" t="str">
+        <f ca="1"/>
+        <v>skew starbucks</v>
+      </c>
+      <c r="N67" s="24">
+        <f ca="1"/>
+        <v>3.5551828224084425E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M68" t="str">
+        <f ca="1"/>
+        <v>correl amazon google</v>
+      </c>
+      <c r="N68" s="24">
+        <f ca="1"/>
+        <v>6.9985137217266355E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M69" t="str">
+        <f ca="1"/>
+        <v>correl starbucks google</v>
+      </c>
+      <c r="N69" s="24">
+        <f ca="1"/>
+        <v>-4.5343650723018901E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M70" t="str">
+        <f ca="1"/>
+        <v>correl starbucks amazon</v>
+      </c>
+      <c r="N70" s="24">
+        <f ca="1"/>
+        <v>-2.0680389414747557E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M71" t="str">
+        <f ca="1"/>
+        <v>lambda</v>
+      </c>
+      <c r="N71" s="24">
+        <f ca="1"/>
+        <v>8.968213944496815E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M72" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N72" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M73" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N73" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M74" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N74" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M75" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N75" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M76" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N76" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M77" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N77" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M78" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N78" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M79" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N79" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M80" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N80" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M81" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N81" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M82" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N82" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M83" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N83" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M84" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N84" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M85" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N85" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M86" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N86" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M87" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N87" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M88" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N88" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M89" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N89" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M90" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N90" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M91" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N91" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M92" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N92" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M93" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N93" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M94" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N94" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M95" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N95" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M96" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N96" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M97" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N97" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M98" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N98" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M99" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N99" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M100" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N100" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M101" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N101" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M102" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N102" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M103" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N103" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M104" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N104" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testDLM.xlsx
+++ b/testDLM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sc\CompFinance-multiAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Source\Repos\CompFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDC3A9D-5A88-4E60-88EC-1BC80C973CC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="570" windowWidth="39720" windowHeight="23175" activeTab="3"/>
+    <workbookView xWindow="917" yWindow="566" windowWidth="18412" windowHeight="23177" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Sheet1 (4)" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="181029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="46">
   <si>
     <t>spots</t>
   </si>
@@ -169,16 +170,19 @@
   <si>
     <t>cpn</t>
   </si>
+  <si>
+    <t>=xValue(D16,D27,TRUE,,,N19,N20)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +226,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -302,7 +320,7 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -311,33 +329,38 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="6" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent2" xfId="7" builtinId="33"/>
@@ -659,36 +682,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AA61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="8"/>
-    <col min="10" max="10" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="8"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3046875" style="8"/>
+    <col min="10" max="10" width="15.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3046875" style="8"/>
+    <col min="16" max="16" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.4">
       <c r="T3" t="str">
         <f ca="1">_xll.xPutMultiStats(D4:F4,1,2,"stats")</f>
         <v>stats</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -705,7 +728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +745,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -736,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H7" s="15">
         <v>0.25</v>
       </c>
@@ -750,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -776,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -790,7 +813,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -804,7 +827,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -826,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.4">
       <c r="D12" s="12">
         <v>0.8</v>
       </c>
@@ -844,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.4">
       <c r="D13" s="12">
         <v>0.5</v>
       </c>
@@ -861,7 +884,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -872,7 +895,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
@@ -909,7 +932,7 @@
       </c>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -941,7 +964,7 @@
       </c>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C18" s="3" t="str">
         <f t="array" aca="1" ref="C18:H30" ca="1">_xll.xViewDLM(D16)</f>
         <v/>
@@ -991,7 +1014,7 @@
       </c>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C19" s="4" t="str">
         <f ca="1"/>
         <v>google</v>
@@ -1037,7 +1060,7 @@
       </c>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C20" t="str">
         <f ca="1"/>
         <v>amazon</v>
@@ -1083,7 +1106,7 @@
       <c r="Y20" s="9"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C21" t="str">
         <f ca="1"/>
         <v>starbucks</v>
@@ -1128,7 +1151,7 @@
       </c>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C22" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1174,7 +1197,7 @@
       <c r="Y22" s="9"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C23" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1220,7 +1243,7 @@
       <c r="Y23" s="9"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C24" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1265,7 +1288,7 @@
       </c>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C25" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1305,7 +1328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C26" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1345,7 +1368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C27" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1385,7 +1408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C28" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1425,7 +1448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C29" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1465,7 +1488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C30" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1505,11 +1528,11 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -1531,7 +1554,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B33">
         <f t="array" aca="1" ref="B33:B35" ca="1">TRANSPOSE(D8:F8)</f>
         <v>50</v>
@@ -1566,7 +1589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B34">
         <f ca="1"/>
         <v>100</v>
@@ -1636,7 +1659,7 @@
         <v>51.010164544377844</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B35">
         <f ca="1"/>
         <v>25</v>
@@ -1706,7 +1729,7 @@
         <v>103.04535496549822</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.4">
       <c r="J36" s="6" t="s">
         <v>26</v>
       </c>
@@ -1747,18 +1770,18 @@
         <v>25.633417938570012</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.4">
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.4">
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="W38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1781,7 +1804,7 @@
         <v>25.633417938570012</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1804,7 +1827,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1835,7 +1858,7 @@
         <v>1350.5556695677483</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1866,7 +1889,7 @@
         <v>2712.5561131123955</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1897,7 +1920,7 @@
         <v>706.68175945278654</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1908,7 +1931,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1922,7 +1945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1945,7 +1968,7 @@
         <v>25.633417938570012</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1968,7 +1991,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -1999,7 +2022,7 @@
         <v>42.990802686485267</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2030,7 +2053,7 @@
         <v>71.15146265347903</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2061,7 +2084,7 @@
         <v>49.60964423938367</v>
       </c>
     </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2072,7 +2095,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2086,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2109,7 +2132,7 @@
         <v>7.0434114063700459</v>
       </c>
     </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2132,7 +2155,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2167,7 +2190,7 @@
         <v>0.56805258282582616</v>
       </c>
     </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2202,7 +2225,7 @@
         <v>0.65970451754100701</v>
       </c>
     </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2237,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2248,7 +2271,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2259,7 +2282,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2270,7 +2293,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2288,33 +2311,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="8"/>
-    <col min="10" max="10" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="8"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3046875" style="8"/>
+    <col min="10" max="10" width="15.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3046875" style="8"/>
+    <col min="16" max="16" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.3828125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:25" x14ac:dyDescent="0.4">
       <c r="X2" t="s">
         <v>30</v>
       </c>
@@ -2322,7 +2345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H3" s="7" t="s">
         <v>39</v>
       </c>
@@ -2337,7 +2360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -2370,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -2381,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2427,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H7" s="15">
         <v>0.25</v>
       </c>
@@ -2418,7 +2441,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2481,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -2472,7 +2495,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -2494,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.4">
       <c r="D12" s="12">
         <v>0.3</v>
       </c>
@@ -2512,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.4">
       <c r="D13" s="12">
         <v>0.1</v>
       </c>
@@ -2529,7 +2552,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -2540,7 +2563,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
@@ -2578,7 +2601,7 @@
       </c>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2611,7 +2634,7 @@
       </c>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C18" s="3" t="str">
         <f t="array" aca="1" ref="C18:H30" ca="1">_xll.xViewDLM(D16)</f>
         <v/>
@@ -2662,7 +2685,7 @@
       </c>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C19" s="4" t="str">
         <f ca="1"/>
         <v>google</v>
@@ -2714,7 +2737,7 @@
       </c>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C20" t="str">
         <f ca="1"/>
         <v>amazon</v>
@@ -2766,7 +2789,7 @@
       <c r="Y20" s="9"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C21" t="str">
         <f ca="1"/>
         <v>starbucks</v>
@@ -2817,7 +2840,7 @@
       </c>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C22" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -2869,7 +2892,7 @@
       <c r="Y22" s="9"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C23" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -2921,7 +2944,7 @@
       <c r="Y23" s="9"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C24" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -2972,7 +2995,7 @@
       </c>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C25" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3035,7 +3058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C26" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3097,7 +3120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C27" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3159,7 +3182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C28" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3213,7 +3236,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C29" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3267,7 +3290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C30" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -3321,7 +3344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="S31" s="7">
@@ -3351,7 +3374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -3404,7 +3427,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B33">
         <f t="array" aca="1" ref="B33:B35" ca="1">TRANSPOSE(D8:F8)</f>
         <v>50</v>
@@ -3462,7 +3485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B34">
         <f ca="1"/>
         <v>100</v>
@@ -3538,7 +3561,7 @@
         <v>2.5508998007966419E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B35">
         <f ca="1"/>
         <v>25</v>
@@ -3614,7 +3637,7 @@
         <v>-1.1939321040121053E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.4">
       <c r="J36" s="6" t="s">
         <v>26</v>
       </c>
@@ -3661,7 +3684,7 @@
         <v>3.2923555692051073E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.4">
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="S37" s="7">
@@ -3687,7 +3710,7 @@
         <v>89.702914316706924</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.4">
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="S38" s="7">
@@ -3709,7 +3732,7 @@
         <v>21.774727170018195</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3738,7 +3761,7 @@
         <v>109.19713309243889</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3767,7 +3790,7 @@
         <v>4.0007883135083375</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3796,7 +3819,7 @@
         <v>-5.947162173990364</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3825,7 +3848,7 @@
         <v>37.317708459104324</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3844,7 +3867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3863,7 +3886,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3882,7 +3905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3901,7 +3924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3920,7 +3943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3939,7 +3962,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -3958,7 +3981,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3977,7 +4000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3996,7 +4019,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4007,7 +4030,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4018,7 +4041,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4029,7 +4052,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4040,7 +4063,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4054,7 +4077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -4073,7 +4096,7 @@
         <v>50.250643505236695</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4092,7 +4115,7 @@
         <v>95.476143613249917</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -4111,7 +4134,7 @@
         <v>22.612857494939018</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -4122,7 +4145,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -4136,7 +4159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.4">
       <c r="W62" s="7">
         <f t="array" aca="1" ref="W62:Y62" ca="1">TRANSPOSE(U64:U66)</f>
         <v>50.250643505236695</v>
@@ -4150,7 +4173,7 @@
         <v>22.612857494939018</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.4">
       <c r="W63" t="str">
         <f t="array" aca="1" ref="W63:Y63" ca="1">TRANSPOSE(V64:V66)</f>
         <v>google</v>
@@ -4164,7 +4187,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:25" x14ac:dyDescent="0.4">
       <c r="U64" s="7">
         <f t="array" aca="1" ref="U64:U66" ca="1">W57:W59</f>
         <v>50.250643505236695</v>
@@ -4186,7 +4209,7 @@
         <v>1140.3114289264086</v>
       </c>
     </row>
-    <row r="65" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U65" s="7">
         <f ca="1"/>
         <v>95.476143613249917</v>
@@ -4208,7 +4231,7 @@
         <v>2153.0412675187622</v>
       </c>
     </row>
-    <row r="66" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U66" s="7">
         <f ca="1"/>
         <v>22.612857494939018</v>
@@ -4230,12 +4253,12 @@
         <v>548.65903254552404</v>
       </c>
     </row>
-    <row r="68" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W69" s="7">
         <f t="array" aca="1" ref="W69:Y69" ca="1">W62:Y62</f>
         <v>50.250643505236695</v>
@@ -4249,7 +4272,7 @@
         <v>22.612857494939018</v>
       </c>
     </row>
-    <row r="70" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W70" t="str">
         <f t="array" aca="1" ref="W70:Y70" ca="1">TRANSPOSE(V71:V73)</f>
         <v>google</v>
@@ -4263,7 +4286,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="71" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U71" s="7">
         <f t="array" aca="1" ref="U71:U73" ca="1">U64:U66</f>
         <v>50.250643505236695</v>
@@ -4285,7 +4308,7 @@
         <v>4.0007883135083375</v>
       </c>
     </row>
-    <row r="72" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U72" s="7">
         <f ca="1"/>
         <v>95.476143613249917</v>
@@ -4307,7 +4330,7 @@
         <v>-5.947162173990364</v>
       </c>
     </row>
-    <row r="73" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U73" s="7">
         <f ca="1"/>
         <v>22.612857494939018</v>
@@ -4329,12 +4352,12 @@
         <v>37.317708459104324</v>
       </c>
     </row>
-    <row r="75" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W76" s="7">
         <f ca="1">SQRT(W71)</f>
         <v>7.2896506282005236</v>
@@ -4348,7 +4371,7 @@
         <v>6.1088221826391642</v>
       </c>
     </row>
-    <row r="77" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W77" t="str">
         <f t="array" aca="1" ref="W77:Y77" ca="1">TRANSPOSE(V78:V80)</f>
         <v>google</v>
@@ -4362,7 +4385,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="78" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="20:25" x14ac:dyDescent="0.4">
       <c r="T78" s="10">
         <f ca="1">U78/W57</f>
         <v>0.14506581646941213</v>
@@ -4388,7 +4411,7 @@
         <v>8.98424061952042E-2</v>
       </c>
     </row>
-    <row r="79" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="20:25" x14ac:dyDescent="0.4">
       <c r="T79" s="10">
         <f ca="1">U79/W58</f>
         <v>0.10944873568981481</v>
@@ -4414,7 +4437,7 @@
         <v>-9.3163689561357926E-2</v>
       </c>
     </row>
-    <row r="80" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="20:25" x14ac:dyDescent="0.4">
       <c r="T80" s="10">
         <f ca="1">U80/W59</f>
         <v>0.27014817494898108</v>
@@ -4447,31 +4470,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:AA61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="10" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="4" max="4" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.15234375" style="8"/>
+    <col min="10" max="10" width="15.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.4">
       <c r="H3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -4494,7 +4517,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -4505,7 +4528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -4528,7 +4551,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.4">
       <c r="H7" s="15">
         <v>0.25</v>
       </c>
@@ -4542,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -4568,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -4582,7 +4605,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -4596,7 +4619,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -4612,7 +4635,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.4">
       <c r="D12" s="12">
         <v>0.3</v>
       </c>
@@ -4624,7 +4647,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.4">
       <c r="D13" s="12">
         <v>0.1</v>
       </c>
@@ -4635,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -4646,7 +4669,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
@@ -4663,7 +4686,7 @@
       <c r="K16" s="6"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -4675,7 +4698,7 @@
       <c r="K17" s="6"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4687,7 +4710,7 @@
       <c r="K18" s="6"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -4699,14 +4722,14 @@
       <c r="K19" s="6"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -4716,7 +4739,7 @@
       <c r="K21" s="6"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>34</v>
       </c>
@@ -4724,7 +4747,7 @@
       <c r="K22" s="6"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C23" t="str">
         <f t="array" aca="1" ref="C23:C25" ca="1">TRANSPOSE(D4:F4)</f>
         <v>google</v>
@@ -4736,7 +4759,7 @@
       <c r="K23" s="6"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C24" t="str">
         <f ca="1"/>
         <v>amazon</v>
@@ -4748,7 +4771,7 @@
       <c r="K24" s="6"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C25" t="str">
         <f ca="1"/>
         <v>starbucks</v>
@@ -4759,11 +4782,11 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" s="4" t="str">
         <f ca="1">_xll.xPutBaskets(C23:C25,D23:D25,D30,D32:F32,"bkt")</f>
         <v>bkt</v>
@@ -4771,15 +4794,15 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>35</v>
       </c>
@@ -4789,7 +4812,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="M31" t="s">
@@ -4800,7 +4823,7 @@
         <v>101.51130646157189</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>36</v>
       </c>
@@ -4823,7 +4846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:27" x14ac:dyDescent="0.4">
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="11"/>
@@ -4879,7 +4902,7 @@
         <v>11.78353772595541</v>
       </c>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.4">
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="11"/>
@@ -4933,7 +4956,7 @@
         <v>5.8600268386718684</v>
       </c>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.4">
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="11"/>
@@ -4989,7 +5012,7 @@
         <v>2.4506311356786377</v>
       </c>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.4">
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="8"/>
@@ -5027,7 +5050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:27" x14ac:dyDescent="0.4">
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="P37" t="e">
@@ -5063,7 +5086,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.4">
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" t="s">
@@ -5106,7 +5129,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -5156,7 +5179,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -5199,7 +5222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -5242,7 +5265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -5285,7 +5308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -5296,7 +5319,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -5307,7 +5330,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -5318,7 +5341,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -5329,7 +5352,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -5340,7 +5363,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:27" x14ac:dyDescent="0.4">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -5351,7 +5374,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -5362,7 +5385,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -5373,7 +5396,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -5384,7 +5407,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -5395,7 +5418,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -5406,7 +5429,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -5417,7 +5440,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -5428,7 +5451,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -5439,7 +5462,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -5450,7 +5473,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -5461,7 +5484,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5472,7 +5495,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -5483,7 +5506,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -5501,32 +5524,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="10" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
-    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.15234375" style="8"/>
+    <col min="10" max="10" width="15.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.15234375" style="8"/>
+    <col min="13" max="13" width="37.53515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.4">
       <c r="H3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -5540,32 +5564,32 @@
         <v>10</v>
       </c>
       <c r="H4" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="14">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>4</v>
@@ -5583,7 +5607,7 @@
         <v>starbucks</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.4">
       <c r="H7" s="15">
         <v>0.25</v>
       </c>
@@ -5596,62 +5620,67 @@
       <c r="K7" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E8" s="12">
         <v>100</v>
       </c>
       <c r="F8" s="12">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H8" s="15">
         <v>0.75</v>
       </c>
       <c r="I8" s="16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J8" s="16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K8" s="16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="13">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="13">
-        <v>0.3</v>
+        <f ca="1">D9</f>
+        <v>0.1</v>
       </c>
       <c r="F9" s="13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+        <f ca="1">E9</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="12">
-        <v>-0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="E10" s="12">
-        <v>-0.5</v>
+        <f ca="1">D10</f>
+        <v>-0.1</v>
       </c>
       <c r="F10" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+        <f ca="1">E10</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -5660,43 +5689,43 @@
       </c>
       <c r="E11">
         <f ca="1">D12</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f ca="1">D13</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.4">
       <c r="D12" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12">
         <f ca="1">E13</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.4">
       <c r="D13" s="12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.4">
       <c r="N14">
         <f ca="1">0.24%*100</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
@@ -5707,7 +5736,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
@@ -5716,15 +5745,17 @@
         <v>dlm</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="4" t="str">
+        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H4:J4,H7:H8,I7:K8,D11:F13,D6,"dlm1")</f>
+        <v>dlm1</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -5736,7 +5767,7 @@
       <c r="K17" s="6"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -5748,7 +5779,7 @@
       <c r="K18" s="6"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -5762,11 +5793,11 @@
         <v>21</v>
       </c>
       <c r="N19">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>35</v>
       </c>
@@ -5785,20 +5816,23 @@
       </c>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6">
+        <f ca="1">-0.15%*100</f>
+        <v>-0.15</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -5810,750 +5844,600 @@
       <c r="J22"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="23">
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="23">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="8">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C27" s="4"/>
       <c r="D27" t="str">
         <f ca="1">_xll.xPutAutocall(D4:F4,D20,D21,D22,D23,D24,D25,"autocall")</f>
         <v>autocall</v>
       </c>
-      <c r="H27"/>
+      <c r="H27" t="str">
+        <f ca="1">_xll.xPutAutocall(D4:F4,D20,D21,D22,D23,D24,D25,"autocall1")</f>
+        <v>autocall1</v>
+      </c>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="M27" t="str">
-        <f t="array" aca="1" ref="M27:Y46" ca="1">_xll.xValue(D16,D27,TRUE,,,N19,N20)</f>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N27" s="8">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.4">
       <c r="D28" t="str">
         <f ca="1">_xll.xPayoffIds(D27)</f>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="H28"/>
+        <v>autocall strike 1 KO 100 CPN 10 2 periods of 3m</v>
+      </c>
+      <c r="H28" t="str">
+        <f ca="1">_xll.xPayoffIds(H27)</f>
+        <v>autocall strike 1 KO 100 CPN 10 2 periods of 3m</v>
+      </c>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
-      <c r="M28" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N28">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="M29" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N29">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="M30" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N30">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="M31" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N31">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y31" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="M32" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N32">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="M33" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N33">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y33" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="M34" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N34">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y34" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="M35" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N35">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y35" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="M36" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N36">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.4">
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="M37" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N37">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.4">
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="M38" s="23" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N38">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y38" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M38" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -6563,60 +6447,47 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="M39" s="7" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N39">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -6626,60 +6497,47 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="M40" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N40">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y40" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -6689,60 +6547,47 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="M41" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N41">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y41" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -6752,60 +6597,47 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="M42" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N42">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -6815,60 +6647,47 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="M43" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N43">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y43" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -6878,60 +6697,47 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="M44" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N44">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y44" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -6941,60 +6747,47 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="M45" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N45">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -7004,60 +6797,47 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="M46" t="str">
-        <f ca="1"/>
-        <v>autocall strike 70 KO 100 CPN 366 of 1m</v>
-      </c>
-      <c r="N46">
-        <f ca="1"/>
-        <v>0.99901885687797853</v>
-      </c>
-      <c r="O46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y46" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="M46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -7068,7 +6848,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -7079,15 +6859,18 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="M48" s="4" t="str">
-        <f t="array" aca="1" ref="M48:N104" ca="1">_xll.xAADrisk(D16,D27,D28,TRUE,,,N19,N20)</f>
+        <f t="array" aca="1" ref="M48:N104" ca="1">_xll.xAADrisk(H16,H27,H28,TRUE,,,N19,N20)</f>
         <v>value</v>
       </c>
       <c r="N48" s="8">
         <f ca="1"/>
-        <v>0.99901885687797842</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+        <v>1.0409359182837492</v>
+      </c>
+      <c r="O48" s="8">
+        <v>1.1120599717823247</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -7097,16 +6880,22 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
+      <c r="L49">
+        <v>0</v>
+      </c>
       <c r="M49" t="str">
         <f ca="1"/>
         <v>disc rate</v>
       </c>
       <c r="N49" s="24">
         <f ca="1"/>
-        <v>-0.25285276289795638</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+        <v>-0.42357714197936824</v>
+      </c>
+      <c r="O49" s="24">
+        <v>-0.33932891814532651</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -7116,16 +6905,22 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
+      <c r="L50">
+        <v>1</v>
+      </c>
       <c r="M50" t="str">
         <f ca="1"/>
         <v>spot google</v>
       </c>
       <c r="N50" s="24">
         <f ca="1"/>
-        <v>-8.0353327812490121E-17</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+        <v>-1.7347234759768072E-19</v>
+      </c>
+      <c r="O50" s="24">
+        <v>-1.332267629550188E-19</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -7135,16 +6930,22 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
+      <c r="L51">
+        <v>2</v>
+      </c>
       <c r="M51" t="str">
         <f ca="1"/>
         <v>spot amazon</v>
       </c>
-      <c r="N51" s="24">
-        <f ca="1"/>
-        <v>-0.12549520976595069</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="26">
+        <f ca="1"/>
+        <v>1.5211653632391489E-3</v>
+      </c>
+      <c r="O51" s="26">
+        <v>1.3570248409156336E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -7154,16 +6955,22 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
+      <c r="L52">
+        <v>3</v>
+      </c>
       <c r="M52" t="str">
         <f ca="1"/>
         <v>spot starbucks</v>
       </c>
       <c r="N52" s="24">
         <f ca="1"/>
-        <v>-1.8367529719398591E-16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+        <v>-4.336808689942018E-20</v>
+      </c>
+      <c r="O52" s="24">
+        <v>2.5757174171303634E-18</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -7173,16 +6980,22 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
+      <c r="L53">
+        <v>4</v>
+      </c>
       <c r="M53" t="str">
         <f ca="1"/>
         <v>repo rate google</v>
       </c>
       <c r="N53" s="24">
         <f ca="1"/>
-        <v>5.8921361889013806E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+        <v>-1.9040928730446001E-2</v>
+      </c>
+      <c r="O53" s="24">
+        <v>-8.2832664144430121E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -7192,16 +7005,22 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
+      <c r="L54">
+        <v>5</v>
+      </c>
       <c r="M54" t="str">
         <f ca="1"/>
         <v>repo rate amazon</v>
       </c>
       <c r="N54" s="24">
         <f ca="1"/>
-        <v>2.1431416696016628E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+        <v>-6.456297113668687E-3</v>
+      </c>
+      <c r="O54" s="24">
+        <v>-8.2632361783239558E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -7211,16 +7030,22 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
+      <c r="L55">
+        <v>6</v>
+      </c>
       <c r="M55" t="str">
         <f ca="1"/>
         <v>repo rate starbucks</v>
       </c>
       <c r="N55" s="24">
         <f ca="1"/>
-        <v>8.9478850682821368E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+        <v>-6.6117537268225394E-3</v>
+      </c>
+      <c r="O55" s="24">
+        <v>-8.2954966509760031E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -7230,16 +7055,22 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
+      <c r="L56">
+        <v>7</v>
+      </c>
       <c r="M56" t="str">
         <f ca="1"/>
         <v>div google 0.25</v>
       </c>
       <c r="N56" s="24">
         <f ca="1"/>
-        <v>-9.8429800092461675E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O56" s="24">
+        <v>4.5328687184502746E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -7249,16 +7080,22 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
+      <c r="L57">
+        <v>8</v>
+      </c>
       <c r="M57" t="str">
         <f ca="1"/>
         <v>div amazon 0.25</v>
       </c>
       <c r="N57" s="24">
         <f ca="1"/>
-        <v>-4.0976541852453585E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O57" s="24">
+        <v>4.6061305755631124E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -7268,16 +7105,22 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
+      <c r="L58">
+        <v>9</v>
+      </c>
       <c r="M58" t="str">
         <f ca="1"/>
         <v>div starbucks 0.25</v>
       </c>
       <c r="N58" s="24">
         <f ca="1"/>
-        <v>-0.12348427688330513</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O58" s="24">
+        <v>4.5958302025835E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -7287,16 +7130,22 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
+      <c r="L59">
+        <v>10</v>
+      </c>
       <c r="M59" t="str">
         <f ca="1"/>
         <v>div google 0.75</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="24">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -7306,16 +7155,22 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
+      <c r="L60">
+        <v>11</v>
+      </c>
       <c r="M60" t="str">
         <f ca="1"/>
         <v>div amazon 0.75</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="24">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -7325,116 +7180,182 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
+      <c r="L61">
+        <v>12</v>
+      </c>
       <c r="M61" t="str">
         <f ca="1"/>
         <v>div starbucks 0.75</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="24">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="L62">
+        <v>13</v>
+      </c>
       <c r="M62" t="str">
         <f ca="1"/>
         <v>ATM google</v>
       </c>
       <c r="N62" s="24">
         <f ca="1"/>
-        <v>-0.13366938122897926</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M63" t="str">
+        <v>1.1991606617264722E-2</v>
+      </c>
+      <c r="O62" s="24">
+        <v>0.1238281902600203</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="L63" s="28">
+        <v>14</v>
+      </c>
+      <c r="M63" s="28" t="str">
         <f ca="1"/>
         <v>ATM amazon</v>
       </c>
-      <c r="N63" s="24">
-        <f ca="1"/>
-        <v>-17.998636175838808</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="29">
+        <f ca="1"/>
+        <v>1.5296053495957573</v>
+      </c>
+      <c r="O63" s="29">
+        <v>13.700456469008763</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="L64">
+        <v>15</v>
+      </c>
       <c r="M64" t="str">
         <f ca="1"/>
         <v>ATM starbucks</v>
       </c>
       <c r="N64" s="24">
         <f ca="1"/>
-        <v>-0.17931991483527077</v>
-      </c>
-    </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.25">
+        <v>1.4389819886095639E-2</v>
+      </c>
+      <c r="O64" s="24">
+        <v>0.13109573163161892</v>
+      </c>
+    </row>
+    <row r="65" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L65">
+        <v>16</v>
+      </c>
       <c r="M65" t="str">
         <f ca="1"/>
         <v>skew google</v>
       </c>
-      <c r="N65" s="24">
-        <f ca="1"/>
-        <v>7.7311312919634431E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M66" t="str">
+      <c r="N65" s="26">
+        <f ca="1"/>
+        <v>7.0891479884447326E-4</v>
+      </c>
+      <c r="O65" s="26">
+        <v>-9.6368897834913699E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L66" s="28">
+        <v>17</v>
+      </c>
+      <c r="M66" s="28" t="str">
         <f ca="1"/>
         <v>skew amazon</v>
       </c>
-      <c r="N66" s="24">
-        <f ca="1"/>
-        <v>-10.736896306603478</v>
-      </c>
-    </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="30">
+        <f ca="1"/>
+        <v>1.5215415668588688</v>
+      </c>
+      <c r="O66" s="30">
+        <v>13.574169857838756</v>
+      </c>
+    </row>
+    <row r="67" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L67">
+        <v>18</v>
+      </c>
       <c r="M67" t="str">
         <f ca="1"/>
         <v>skew starbucks</v>
       </c>
       <c r="N67" s="24">
         <f ca="1"/>
-        <v>3.5551828224084425E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.25">
+        <v>-1.6065837361359803E-4</v>
+      </c>
+      <c r="O67" s="24">
+        <v>3.8260914657908419E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L68">
+        <v>19</v>
+      </c>
       <c r="M68" t="str">
         <f ca="1"/>
         <v>correl amazon google</v>
       </c>
       <c r="N68" s="24">
         <f ca="1"/>
-        <v>6.9985137217266355E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="13:14" x14ac:dyDescent="0.25">
+        <v>-8.7094124482552939E-4</v>
+      </c>
+      <c r="O68" s="24">
+        <v>-9.002093705639945E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L69">
+        <v>20</v>
+      </c>
       <c r="M69" t="str">
         <f ca="1"/>
         <v>correl starbucks google</v>
       </c>
       <c r="N69" s="24">
         <f ca="1"/>
-        <v>-4.5343650723018901E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="13:14" x14ac:dyDescent="0.25">
+        <v>-8.8359965978655557E-4</v>
+      </c>
+      <c r="O69" s="24">
+        <v>-2.1595834516586663E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L70">
+        <v>21</v>
+      </c>
       <c r="M70" t="str">
         <f ca="1"/>
         <v>correl starbucks amazon</v>
       </c>
       <c r="N70" s="24">
         <f ca="1"/>
-        <v>-2.0680389414747557E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="13:14" x14ac:dyDescent="0.25">
+        <v>-1.52116536323916E-3</v>
+      </c>
+      <c r="O70" s="24">
+        <v>-8.9267084118368045E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L71">
+        <v>22</v>
+      </c>
       <c r="M71" t="str">
         <f ca="1"/>
         <v>lambda</v>
       </c>
       <c r="N71" s="24">
         <f ca="1"/>
-        <v>8.968213944496815E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="13:14" x14ac:dyDescent="0.25">
+        <v>-3.9132719713038493E-3</v>
+      </c>
+      <c r="O71" s="24">
+        <v>-2.6845825951394706E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="12:15" x14ac:dyDescent="0.4">
       <c r="M72" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7444,7 +7365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:15" x14ac:dyDescent="0.4">
       <c r="M73" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7454,7 +7375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:15" x14ac:dyDescent="0.4">
       <c r="M74" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7464,7 +7385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:15" x14ac:dyDescent="0.4">
       <c r="M75" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7474,7 +7395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:15" x14ac:dyDescent="0.4">
       <c r="M76" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7484,7 +7405,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:15" x14ac:dyDescent="0.4">
       <c r="M77" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7494,7 +7415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:15" x14ac:dyDescent="0.4">
       <c r="M78" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7504,7 +7425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:15" x14ac:dyDescent="0.4">
       <c r="M79" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7514,7 +7435,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:15" x14ac:dyDescent="0.4">
       <c r="M80" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7524,7 +7445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M81" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7534,7 +7455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M82" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7544,7 +7465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M83" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7554,7 +7475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M84" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7564,7 +7485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M85" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7574,7 +7495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M86" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7584,7 +7505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M87" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7594,7 +7515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M88" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7604,7 +7525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M89" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7614,7 +7535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M90" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7624,7 +7545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M91" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7634,7 +7555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M92" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7644,7 +7565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M93" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7654,7 +7575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M94" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7664,7 +7585,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M95" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7674,7 +7595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M96" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7684,7 +7605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M97" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7694,7 +7615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M98" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7704,7 +7625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M99" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7714,7 +7635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M100" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7724,7 +7645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M101" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7734,7 +7655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M102" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7744,7 +7665,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M103" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7754,7 +7675,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M104" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7771,14 +7692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testDLM.xlsx
+++ b/testDLM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Source\Repos\CompFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDC3A9D-5A88-4E60-88EC-1BC80C973CC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F81EB-3DBF-4DAF-B4A2-0847A936B429}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="917" yWindow="566" windowWidth="18412" windowHeight="23177" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="44092" windowHeight="24292" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
   <si>
     <t>spots</t>
   </si>
@@ -171,7 +171,16 @@
     <t>cpn</t>
   </si>
   <si>
-    <t>=xValue(D16,D27,TRUE,,,N19,N20)</t>
+    <t>refs</t>
+  </si>
+  <si>
+    <t>uber</t>
+  </si>
+  <si>
+    <t>lyft</t>
+  </si>
+  <si>
+    <t>luckin</t>
   </si>
 </sst>
 </file>
@@ -329,7 +338,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -361,6 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent2" xfId="7" builtinId="33"/>
@@ -707,7 +717,7 @@
   <sheetData>
     <row r="3" spans="3:25" x14ac:dyDescent="0.4">
       <c r="T3" t="str">
-        <f ca="1">_xll.xPutMultiStats(D4:F4,1,2,"stats")</f>
+        <f>_xll.xPutMultiStats(D4:F4,1,2,"stats")</f>
         <v>stats</v>
       </c>
     </row>
@@ -835,11 +845,11 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f ca="1">D12</f>
+        <f>D12</f>
         <v>0.8</v>
       </c>
       <c r="F11">
-        <f ca="1">D13</f>
+        <f>D13</f>
         <v>0.5</v>
       </c>
       <c r="T11" t="s">
@@ -857,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <f ca="1">E13</f>
+        <f>E13</f>
         <v>0.7</v>
       </c>
       <c r="T12" t="s">
@@ -900,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H5:J5,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
+        <f>_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H5:J5,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
         <v>dlm</v>
       </c>
       <c r="E16" s="4"/>
@@ -915,19 +925,17 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="T16" t="str">
-        <f t="array" aca="1" ref="T16:V30" ca="1">_xll.xValue(D16,T3,U12,,,U13,U11)</f>
-        <v>google 1.00 2.00</v>
+        <f t="array" ref="T16:V30">_xll.xValue(D16,T3,U12,,,U13,U11)</f>
+        <v>google 0.50 0.50</v>
       </c>
       <c r="U16" s="9">
-        <f ca="1"/>
-        <v>51.010164544377844</v>
+        <v>50.250643505236695</v>
       </c>
       <c r="V16" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W16" s="7">
-        <f ca="1">D8*EXP(2*($D$5-H5))</f>
+        <f>D8*EXP(2*($D$5-H5))</f>
         <v>51.010067001337788</v>
       </c>
       <c r="Y16" s="9"/>
@@ -947,46 +955,38 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="T17" t="str">
-        <f ca="1"/>
-        <v>amazon 1.00 2.00</v>
+        <v>amazon 0.50 0.50</v>
       </c>
       <c r="U17" s="9">
-        <f ca="1"/>
-        <v>103.04535496549822</v>
+        <v>95.476143613249917</v>
       </c>
       <c r="V17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W17" s="7">
-        <f ca="1">E8*EXP(2*($D$5-I5))</f>
+        <f>E8*EXP(2*($D$5-I5))</f>
         <v>103.0454533953517</v>
       </c>
       <c r="Y17" s="9"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C18" s="3" t="str">
-        <f t="array" aca="1" ref="C18:H30" ca="1">_xll.xViewDLM(D16)</f>
+        <f t="array" ref="C18:H30">_xll.xViewDLM(D16)</f>
         <v/>
       </c>
       <c r="D18" s="3" t="str">
-        <f ca="1"/>
         <v>dynamics</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f ca="1"/>
         <v>alpha</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f ca="1"/>
         <v>beta</v>
       </c>
       <c r="G18" s="4" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H18" s="5" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="I18" s="6"/>
@@ -997,46 +997,37 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="T18" t="str">
-        <f ca="1"/>
-        <v>starbucks 1.00 2.00</v>
+        <v>starbucks 0.50 0.50</v>
       </c>
       <c r="U18" s="9">
-        <f ca="1"/>
-        <v>25.633417938570012</v>
+        <v>22.612857494939018</v>
       </c>
       <c r="V18" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W18" s="7">
-        <f ca="1">F8*EXP(2*($D$5-J5))</f>
+        <f>F8*EXP(2*($D$5-J5))</f>
         <v>25.632878013110723</v>
       </c>
       <c r="Y18" s="9"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C19" s="4" t="str">
-        <f ca="1"/>
         <v>google</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f ca="1"/>
         <v>subnormal</v>
       </c>
       <c r="E19" s="5">
-        <f ca="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="F19" s="5">
-        <f ca="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G19" s="4" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H19" s="5" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="I19" s="6"/>
@@ -1047,42 +1038,33 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="T19" t="str">
-        <f ca="1"/>
-        <v>google google 1.00 2.00</v>
+        <v>google google 0.50 0.50</v>
       </c>
       <c r="U19" s="9">
-        <f ca="1"/>
-        <v>2717.4906033510347</v>
+        <v>2578.2661789716112</v>
       </c>
       <c r="V19" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C20" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="D20" t="str">
-        <f ca="1"/>
         <v>surnormal</v>
       </c>
       <c r="E20" s="7">
-        <f ca="1"/>
         <v>200.00000000000006</v>
       </c>
       <c r="F20" s="7">
-        <f ca="1"/>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="G20" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H20" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J20" s="6"/>
@@ -1092,15 +1074,12 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="T20" t="str">
-        <f ca="1"/>
-        <v>amazon google 1.00 2.00</v>
+        <v>amazon google 0.50 0.50</v>
       </c>
       <c r="U20" s="9">
-        <f ca="1"/>
-        <v>5382.1604930710328</v>
+        <v>4819.5123831342207</v>
       </c>
       <c r="V20" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Y20" s="9"/>
@@ -1108,27 +1087,21 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C21" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="D21" t="str">
-        <f ca="1"/>
         <v>subnormal</v>
       </c>
       <c r="E21" s="7">
-        <f ca="1"/>
         <v>33.333333333333329</v>
       </c>
       <c r="F21" s="7">
-        <f ca="1"/>
         <v>0.75</v>
       </c>
       <c r="G21" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H21" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J21" s="6"/>
@@ -1138,42 +1111,33 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="T21" t="str">
-        <f ca="1"/>
-        <v>amazon amazon 1.00 2.00</v>
+        <v>amazon amazon 0.50 0.50</v>
       </c>
       <c r="U21" s="9">
-        <f ca="1"/>
-        <v>10852.823468633802</v>
+        <v>9224.8911323503617</v>
       </c>
       <c r="V21" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H22" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J22" s="6"/>
@@ -1183,15 +1147,12 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="T22" t="str">
-        <f ca="1"/>
-        <v>starbucks google 1.00 2.00</v>
+        <v>starbucks google 0.50 0.50</v>
       </c>
       <c r="U22" s="9">
-        <f ca="1"/>
-        <v>1350.5556695677483</v>
+        <v>1140.3114289264086</v>
       </c>
       <c r="V22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Y22" s="9"/>
@@ -1199,27 +1160,21 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H23" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J23" s="6"/>
@@ -1229,15 +1184,12 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="T23" t="str">
-        <f ca="1"/>
-        <v>starbucks amazon 1.00 2.00</v>
+        <v>starbucks amazon 0.50 0.50</v>
       </c>
       <c r="U23" s="9">
-        <f ca="1"/>
-        <v>2712.5561131123955</v>
+        <v>2153.0412675187622</v>
       </c>
       <c r="V23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Y23" s="9"/>
@@ -1245,27 +1197,21 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H24" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J24" s="6"/>
@@ -1275,256 +1221,199 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="T24" t="str">
-        <f ca="1"/>
-        <v>starbucks starbucks 1.00 2.00</v>
+        <v>starbucks starbucks 0.50 0.50</v>
       </c>
       <c r="U24" s="9">
-        <f ca="1"/>
-        <v>706.68175945278654</v>
+        <v>548.65903254552404</v>
       </c>
       <c r="V24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Y24" s="9"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H25" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="T25" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U25" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="T25" t="str">
+        <v>google 1.00 1.00</v>
+      </c>
+      <c r="U25">
+        <v>46.462565020808249</v>
       </c>
       <c r="V25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H26" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="T26" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U26" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="T26" t="str">
+        <v>amazon 1.00 1.00</v>
+      </c>
+      <c r="U26">
+        <v>95.954601969190364</v>
       </c>
       <c r="V26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H27" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="T27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U27" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="T27" t="str">
+        <v>starbucks 1.00 1.00</v>
+      </c>
+      <c r="U27">
+        <v>22.72662860436218</v>
       </c>
       <c r="V27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H28" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="T28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U28" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="T28" t="str">
+        <v>google google 1.00 1.00</v>
+      </c>
+      <c r="U28">
+        <v>2293.5689471641099</v>
       </c>
       <c r="V28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H29" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="T29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="T29" t="str">
+        <v>amazon google 1.00 1.00</v>
+      </c>
+      <c r="U29">
+        <v>4505.2650985858845</v>
       </c>
       <c r="V29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H30" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="T30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="T30" t="str">
+        <v>amazon amazon 1.00 1.00</v>
+      </c>
+      <c r="U30">
+        <v>9427.265093697164</v>
       </c>
       <c r="V30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -1556,31 +1445,31 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B33">
-        <f t="array" aca="1" ref="B33:B35" ca="1">TRANSPOSE(D8:F8)</f>
+        <f t="array" ref="B33:B35">TRANSPOSE(D8:F8)</f>
         <v>50</v>
       </c>
       <c r="C33" t="str">
-        <f ca="1">C19</f>
+        <f>C19</f>
         <v>google</v>
       </c>
       <c r="D33" s="7">
-        <f ca="1">IF(F19=0,0.000001,F19)</f>
+        <f>IF(F19=0,0.000001,F19)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="E33" s="7">
-        <f ca="1">IF(F19=0,E19/D33,E19)</f>
+        <f>IF(F19=0,E19/D33,E19)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="F33" s="11">
-        <f ca="1">IF(D19="subnormal",E33-B33,E33+B33)</f>
+        <f>IF(D19="subnormal",E33-B33,E33+B33)</f>
         <v>16.666666666666671</v>
       </c>
       <c r="G33" s="7">
-        <f ca="1">F33^2*(EXP(D33^2)-1)</f>
+        <f>F33^2*(EXP(D33^2)-1)</f>
         <v>120.36928182231684</v>
       </c>
       <c r="H33" s="7">
-        <f ca="1">SQRT(G33)</f>
+        <f>SQRT(G33)</f>
         <v>10.971293534598226</v>
       </c>
       <c r="J33" s="6"/>
@@ -1591,142 +1480,139 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B34">
-        <f ca="1"/>
         <v>100</v>
       </c>
       <c r="C34" t="str">
-        <f ca="1">C20</f>
+        <f>C20</f>
         <v>amazon</v>
       </c>
       <c r="D34" s="7">
-        <f ca="1">IF(F20=0,0.0000000001,F20)</f>
+        <f>IF(F20=0,0.0000000001,F20)</f>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="E34" s="7">
-        <f ca="1">IF(F20=0,E20/D34,E20)</f>
+        <f>IF(F20=0,E20/D34,E20)</f>
         <v>200.00000000000006</v>
       </c>
       <c r="F34" s="11">
-        <f ca="1">IF(D20="subnormal",E34-B34,E34+B34)</f>
+        <f>IF(D20="subnormal",E34-B34,E34+B34)</f>
         <v>300.00000000000006</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ref="G34:G35" ca="1" si="0">F34^2*(EXP(D34^2)-1)</f>
+        <f t="shared" ref="G34:G35" si="0">F34^2*(EXP(D34^2)-1)</f>
         <v>225.2814845215668</v>
       </c>
       <c r="H34" s="7">
-        <f ca="1">SQRT(G34)</f>
+        <f>SQRT(G34)</f>
         <v>15.009379884644362</v>
       </c>
       <c r="J34" s="8" t="str">
-        <f ca="1">C33&amp;"/"&amp;C34</f>
+        <f>C33&amp;"/"&amp;C34</f>
         <v>google/amazon</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L34" s="1">
-        <f ca="1">D12*(1-D6)+D6</f>
+        <f>D12*(1-D6)+D6</f>
         <v>0.85000000000000009</v>
       </c>
       <c r="M34" t="s">
         <v>28</v>
       </c>
       <c r="N34">
-        <f ca="1">IF(D19="subnormal",-1,1)*IF(D20="subnormal",-1,1)</f>
+        <f>IF(D19="subnormal",-1,1)*IF(D20="subnormal",-1,1)</f>
         <v>-1</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P34" s="10">
-        <f ca="1">N34*F33*F34*(EXP(N34*L34*D33*D34)-1)</f>
+        <f>N34*F33*F34*(EXP(N34*L34*D33*D34)-1)</f>
         <v>125.88810517129463</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>29</v>
       </c>
       <c r="R34" s="10">
-        <f ca="1">W49</f>
-        <v>125.79998074714604</v>
+        <f>W49</f>
+        <v>21.774727170018195</v>
       </c>
       <c r="V34" t="str">
-        <f t="array" aca="1" ref="V34:V36" ca="1">TRANSPOSE(D4:F4)</f>
+        <f t="array" ref="V34:V36">TRANSPOSE(D4:F4)</f>
         <v>google</v>
       </c>
       <c r="W34" s="9">
-        <f ca="1">U16</f>
-        <v>51.010164544377844</v>
+        <f>U16</f>
+        <v>50.250643505236695</v>
       </c>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B35">
-        <f ca="1"/>
         <v>25</v>
       </c>
       <c r="C35" t="str">
-        <f ca="1">C21</f>
+        <f>C21</f>
         <v>starbucks</v>
       </c>
       <c r="D35" s="7">
-        <f ca="1">IF(F21=0,0.0000000001,F21)</f>
+        <f>IF(F21=0,0.0000000001,F21)</f>
         <v>0.75</v>
       </c>
       <c r="E35" s="7">
-        <f ca="1">IF(F21=0,E21/D35,E21)</f>
+        <f>IF(F21=0,E21/D35,E21)</f>
         <v>33.333333333333329</v>
       </c>
       <c r="F35" s="11">
-        <f ca="1">IF(D21="subnormal",E35-B35,E35+B35)</f>
+        <f>IF(D21="subnormal",E35-B35,E35+B35)</f>
         <v>8.3333333333333286</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>52.434351177798455</v>
       </c>
       <c r="H35" s="7">
-        <f ca="1">SQRT(G35)</f>
+        <f>SQRT(G35)</f>
         <v>7.241156756886185</v>
       </c>
       <c r="J35" s="6" t="str">
-        <f ca="1">C34&amp;"/"&amp;C35</f>
+        <f>C34&amp;"/"&amp;C35</f>
         <v>amazon/starbucks</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="8">
-        <f ca="1">E13*(1-D6)+D6</f>
+        <f>E13*(1-D6)+D6</f>
         <v>0.77499999999999991</v>
       </c>
       <c r="M35" t="s">
         <v>28</v>
       </c>
       <c r="N35">
-        <f ca="1">IF(D20="subnormal",-1,1)*IF(D21="subnormal",-1,1)</f>
+        <f>IF(D20="subnormal",-1,1)*IF(D21="subnormal",-1,1)</f>
         <v>-1</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P35" s="10">
-        <f ca="1">N35*F34*F35*(EXP(N35*L35*D34*D35)-1)</f>
+        <f>N35*F34*F35*(EXP(N35*L35*D34*D35)-1)</f>
         <v>71.610617912915259</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>29</v>
       </c>
       <c r="R35" s="10">
-        <f ca="1">Y49</f>
-        <v>71.15146265347903</v>
+        <f>Y49</f>
+        <v>-5.947162173990364</v>
       </c>
       <c r="V35" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="W35" s="9">
-        <f ca="1">U17</f>
-        <v>103.04535496549822</v>
+        <f>U17</f>
+        <v>95.476143613249917</v>
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.4">
@@ -1737,37 +1623,36 @@
         <v>25</v>
       </c>
       <c r="L36" s="8">
-        <f ca="1">D13*(1-D6)+D6</f>
+        <f>D13*(1-D6)+D6</f>
         <v>0.625</v>
       </c>
       <c r="M36" t="s">
         <v>28</v>
       </c>
       <c r="N36">
-        <f ca="1">IF(D19="subnormal",-1,1)*IF(D21="subnormal",-1,1)</f>
+        <f>IF(D19="subnormal",-1,1)*IF(D21="subnormal",-1,1)</f>
         <v>1</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P36" s="10">
-        <f ca="1">N36*F33*F35*(EXP(N36*L36*D33*D35)-1)</f>
+        <f>N36*F33*F35*(EXP(N36*L36*D33*D35)-1)</f>
         <v>45.108994267898005</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="R36" s="10">
-        <f ca="1">W50</f>
-        <v>42.990802686485267</v>
+        <f>W50</f>
+        <v>4.0007883135083375</v>
       </c>
       <c r="V36" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="W36" s="9">
-        <f ca="1">U18</f>
-        <v>25.633417938570012</v>
+        <f>U18</f>
+        <v>22.612857494939018</v>
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.4">
@@ -1792,16 +1677,14 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="W39" s="7">
-        <f t="array" aca="1" ref="W39:Y39" ca="1">TRANSPOSE(U41:U43)</f>
-        <v>51.010164544377844</v>
+        <f t="array" ref="W39:Y39">TRANSPOSE(U41:U43)</f>
+        <v>50.250643505236695</v>
       </c>
       <c r="X39" s="7">
-        <f ca="1"/>
-        <v>103.04535496549822</v>
+        <v>95.476143613249917</v>
       </c>
       <c r="Y39" s="7">
-        <f ca="1"/>
-        <v>25.633417938570012</v>
+        <v>22.612857494939018</v>
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.4">
@@ -1815,15 +1698,13 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="W40" t="str">
-        <f t="array" aca="1" ref="W40:Y40" ca="1">TRANSPOSE(V41:V43)</f>
+        <f t="array" ref="W40:Y40">TRANSPOSE(V41:V43)</f>
         <v>google</v>
       </c>
       <c r="X40" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="Y40" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
     </row>
@@ -1838,24 +1719,24 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="U41" s="7">
-        <f t="array" aca="1" ref="U41:U43" ca="1">W34:W36</f>
-        <v>51.010164544377844</v>
+        <f t="array" ref="U41:U43">W34:W36</f>
+        <v>50.250643505236695</v>
       </c>
       <c r="V41" t="str">
-        <f t="array" aca="1" ref="V41:V43" ca="1">V34:V36</f>
+        <f t="array" ref="V41:V43">V34:V36</f>
         <v>google</v>
       </c>
       <c r="W41" s="9">
-        <f ca="1">U19</f>
-        <v>2717.4906033510347</v>
+        <f>U19</f>
+        <v>2578.2661789716112</v>
       </c>
       <c r="X41" s="9">
-        <f ca="1">W42</f>
-        <v>5382.1604930710328</v>
+        <f>W42</f>
+        <v>4819.5123831342207</v>
       </c>
       <c r="Y41" s="9">
-        <f ca="1">W43</f>
-        <v>1350.5556695677483</v>
+        <f>W43</f>
+        <v>1140.3114289264086</v>
       </c>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.4">
@@ -1869,24 +1750,22 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="U42" s="7">
-        <f ca="1"/>
-        <v>103.04535496549822</v>
+        <v>95.476143613249917</v>
       </c>
       <c r="V42" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="W42" s="9">
-        <f ca="1">U20</f>
-        <v>5382.1604930710328</v>
+        <f>U20</f>
+        <v>4819.5123831342207</v>
       </c>
       <c r="X42" s="9">
-        <f ca="1">U21</f>
-        <v>10852.823468633802</v>
+        <f>U21</f>
+        <v>9224.8911323503617</v>
       </c>
       <c r="Y42" s="9">
-        <f ca="1">X43</f>
-        <v>2712.5561131123955</v>
+        <f>X43</f>
+        <v>2153.0412675187622</v>
       </c>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.4">
@@ -1900,24 +1779,22 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="U43" s="7">
-        <f ca="1"/>
-        <v>25.633417938570012</v>
+        <v>22.612857494939018</v>
       </c>
       <c r="V43" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="W43" s="9">
-        <f ca="1">U22</f>
-        <v>1350.5556695677483</v>
+        <f>U22</f>
+        <v>1140.3114289264086</v>
       </c>
       <c r="X43" s="9">
-        <f ca="1">U23</f>
-        <v>2712.5561131123955</v>
+        <f>U23</f>
+        <v>2153.0412675187622</v>
       </c>
       <c r="Y43" s="9">
-        <f ca="1">U24</f>
-        <v>706.68175945278654</v>
+        <f>U24</f>
+        <v>548.65903254552404</v>
       </c>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.4">
@@ -1956,16 +1833,14 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="W46" s="7">
-        <f t="array" aca="1" ref="W46:Y46" ca="1">W39:Y39</f>
-        <v>51.010164544377844</v>
+        <f t="array" ref="W46:Y46">W39:Y39</f>
+        <v>50.250643505236695</v>
       </c>
       <c r="X46" s="7">
-        <f ca="1"/>
-        <v>103.04535496549822</v>
+        <v>95.476143613249917</v>
       </c>
       <c r="Y46" s="7">
-        <f ca="1"/>
-        <v>25.633417938570012</v>
+        <v>22.612857494939018</v>
       </c>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.4">
@@ -1979,15 +1854,13 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="W47" t="str">
-        <f t="array" aca="1" ref="W47:Y47" ca="1">TRANSPOSE(V48:V50)</f>
+        <f t="array" ref="W47:Y47">TRANSPOSE(V48:V50)</f>
         <v>google</v>
       </c>
       <c r="X47" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="Y47" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
     </row>
@@ -2002,24 +1875,24 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="U48" s="7">
-        <f t="array" aca="1" ref="U48:U50" ca="1">U41:U43</f>
-        <v>51.010164544377844</v>
+        <f t="array" ref="U48:U50">U41:U43</f>
+        <v>50.250643505236695</v>
       </c>
       <c r="V48" t="str">
-        <f t="array" aca="1" ref="V48:V50" ca="1">V41:V43</f>
+        <f t="array" ref="V48:V50">V41:V43</f>
         <v>google</v>
       </c>
       <c r="W48" s="9">
-        <f ca="1">W41-$U48*W$46</f>
-        <v>115.45371650653215</v>
+        <f>W41-$U48*W$46</f>
+        <v>53.139006281224283</v>
       </c>
       <c r="X48" s="9">
-        <f t="shared" ref="X48:Y48" ca="1" si="1">X41-$U48*X$46</f>
-        <v>125.79998074714604</v>
+        <f t="shared" ref="X48:Y48" si="1">X41-$U48*X$46</f>
+        <v>21.774727170018195</v>
       </c>
       <c r="Y48" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>42.990802686485267</v>
+        <f t="shared" si="1"/>
+        <v>4.0007883135083375</v>
       </c>
     </row>
     <row r="49" spans="3:25" x14ac:dyDescent="0.4">
@@ -2033,24 +1906,22 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="U49" s="7">
-        <f ca="1"/>
-        <v>103.04535496549822</v>
+        <v>95.476143613249917</v>
       </c>
       <c r="V49" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="W49" s="9">
-        <f t="shared" ref="W49:Y49" ca="1" si="2">W42-$U49*W$46</f>
-        <v>125.79998074714604</v>
+        <f t="shared" ref="W49:Y49" si="2">W42-$U49*W$46</f>
+        <v>21.774727170018195</v>
       </c>
       <c r="X49" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>234.47828866827331</v>
+        <f t="shared" si="2"/>
+        <v>109.19713309243889</v>
       </c>
       <c r="Y49" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>71.15146265347903</v>
+        <f t="shared" si="2"/>
+        <v>-5.947162173990364</v>
       </c>
     </row>
     <row r="50" spans="3:25" x14ac:dyDescent="0.4">
@@ -2064,24 +1935,22 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="U50" s="7">
-        <f ca="1"/>
-        <v>25.633417938570012</v>
+        <v>22.612857494939018</v>
       </c>
       <c r="V50" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="W50" s="9">
-        <f t="shared" ref="W50:Y50" ca="1" si="3">W43-$U50*W$46</f>
-        <v>42.990802686485267</v>
+        <f t="shared" ref="W50:Y50" si="3">W43-$U50*W$46</f>
+        <v>4.0007883135083375</v>
       </c>
       <c r="X50" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>71.15146265347903</v>
+        <f t="shared" si="3"/>
+        <v>-5.947162173990364</v>
       </c>
       <c r="Y50" s="9">
-        <f t="shared" ca="1" si="3"/>
-        <v>49.60964423938367</v>
+        <f t="shared" si="3"/>
+        <v>37.317708459104324</v>
       </c>
     </row>
     <row r="51" spans="3:25" x14ac:dyDescent="0.4">
@@ -2120,16 +1989,16 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="W53" s="7">
-        <f ca="1">SQRT(W48)</f>
-        <v>10.744939111345962</v>
+        <f>SQRT(W48)</f>
+        <v>7.2896506282005236</v>
       </c>
       <c r="X53" s="7">
-        <f ca="1">SQRT(X49)</f>
-        <v>15.312683914594244</v>
+        <f>SQRT(X49)</f>
+        <v>10.449743207009391</v>
       </c>
       <c r="Y53" s="7">
-        <f ca="1">SQRT(Y50)</f>
-        <v>7.0434114063700459</v>
+        <f>SQRT(Y50)</f>
+        <v>6.1088221826391642</v>
       </c>
     </row>
     <row r="54" spans="3:25" x14ac:dyDescent="0.4">
@@ -2143,15 +2012,13 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="W54" t="str">
-        <f t="array" aca="1" ref="W54:Y54" ca="1">TRANSPOSE(V55:V57)</f>
+        <f t="array" ref="W54:Y54">TRANSPOSE(V55:V57)</f>
         <v>google</v>
       </c>
       <c r="X54" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="Y54" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
     </row>
@@ -2166,28 +2033,28 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="T55" s="10">
-        <f ca="1">U55/W34</f>
-        <v>0.2106430984357652</v>
+        <f>U55/W34</f>
+        <v>0.14506581646941213</v>
       </c>
       <c r="U55" s="7">
-        <f t="array" aca="1" ref="U55:U57" ca="1">TRANSPOSE(W53:Y53)</f>
-        <v>10.744939111345962</v>
+        <f t="array" ref="U55:U57">TRANSPOSE(W53:Y53)</f>
+        <v>7.2896506282005236</v>
       </c>
       <c r="V55" t="str">
-        <f t="array" aca="1" ref="V55:V57" ca="1">V48:V50</f>
+        <f t="array" ref="V55:V57">V48:V50</f>
         <v>google</v>
       </c>
       <c r="W55" s="9">
-        <f ca="1">W48/$U55/W$53</f>
+        <f>W48/$U55/W$53</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="X55" s="9">
-        <f t="shared" ref="X55:Y55" ca="1" si="4">X48/$U55/X$53</f>
-        <v>0.76458416268237628</v>
+        <f t="shared" ref="X55:Y55" si="4">X48/$U55/X$53</f>
+        <v>0.28585144347144498</v>
       </c>
       <c r="Y55" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.56805258282582616</v>
+        <f t="shared" si="4"/>
+        <v>8.98424061952042E-2</v>
       </c>
     </row>
     <row r="56" spans="3:25" x14ac:dyDescent="0.4">
@@ -2201,28 +2068,26 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="T56" s="10">
-        <f ca="1">U56/W35</f>
-        <v>0.14860139906084321</v>
+        <f>U56/W35</f>
+        <v>0.10944873568981481</v>
       </c>
       <c r="U56" s="7">
-        <f ca="1"/>
-        <v>15.312683914594244</v>
+        <v>10.449743207009391</v>
       </c>
       <c r="V56" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="W56" s="9">
-        <f t="shared" ref="W56:Y56" ca="1" si="5">W49/$U56/W$53</f>
-        <v>0.76458416268237639</v>
+        <f t="shared" ref="W56:Y56" si="5">W49/$U56/W$53</f>
+        <v>0.28585144347144503</v>
       </c>
       <c r="X56" s="9">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.99999999999999978</v>
       </c>
       <c r="Y56" s="9">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.65970451754100701</v>
+        <f t="shared" si="5"/>
+        <v>-9.3163689561357926E-2</v>
       </c>
     </row>
     <row r="57" spans="3:25" x14ac:dyDescent="0.4">
@@ -2236,27 +2101,25 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="T57" s="10">
-        <f ca="1">U57/W36</f>
-        <v>0.27477457057226801</v>
+        <f>U57/W36</f>
+        <v>0.27014817494898108</v>
       </c>
       <c r="U57" s="7">
-        <f ca="1"/>
-        <v>7.0434114063700459</v>
+        <v>6.1088221826391642</v>
       </c>
       <c r="V57" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="W57" s="9">
-        <f t="shared" ref="W57:Y57" ca="1" si="6">W50/$U57/W$53</f>
-        <v>0.56805258282582616</v>
+        <f t="shared" ref="W57:Y57" si="6">W50/$U57/W$53</f>
+        <v>8.9842406195204214E-2</v>
       </c>
       <c r="X57" s="9">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.65970451754100701</v>
+        <f t="shared" si="6"/>
+        <v>-9.3163689561357926E-2</v>
       </c>
       <c r="Y57" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2350,7 +2213,7 @@
         <v>39</v>
       </c>
       <c r="T3" t="str">
-        <f ca="1">_xll.xPutMultiStats(D4:F4,X3:X4,Y3:Y4,"stats")</f>
+        <f>_xll.xPutMultiStats(D4:F4,X3:X4,Y3:Y4,"stats")</f>
         <v>stats</v>
       </c>
       <c r="X3">
@@ -2383,7 +2246,7 @@
         <v>0.01</v>
       </c>
       <c r="T4" t="str">
-        <f ca="1">_xll.xPutMultiStats(D4:F4,X4,Y4,"stats2")</f>
+        <f>_xll.xPutMultiStats(D4:F4,X4,Y4,"stats2")</f>
         <v>stats2</v>
       </c>
       <c r="X4">
@@ -2415,15 +2278,13 @@
         <v>4</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f t="array" aca="1" ref="I6:K6" ca="1">D4:F4</f>
+        <f t="array" ref="I6:K6">D4:F4</f>
         <v>google</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="K6" s="8" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
     </row>
@@ -2503,11 +2364,11 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f ca="1">D12</f>
+        <f>D12</f>
         <v>0.3</v>
       </c>
       <c r="F11">
-        <f ca="1">D13</f>
+        <f>D13</f>
         <v>0.1</v>
       </c>
       <c r="T11" t="s">
@@ -2525,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <f ca="1">E13</f>
+        <f>E13</f>
         <v>-0.1</v>
       </c>
       <c r="T12" t="s">
@@ -2568,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H4:J4,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
+        <f>_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H4:J4,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
         <v>dlm</v>
       </c>
       <c r="E16" s="4"/>
@@ -2582,18 +2443,17 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9">
-        <f ca="1">S16*EXP(0.5*1%)</f>
+        <f>S16*EXP(0.5*1%)</f>
         <v>50.250643860700968</v>
       </c>
       <c r="S16" s="9">
         <v>50.00001772886462</v>
       </c>
       <c r="T16" t="str">
-        <f t="array" aca="1" ref="T16:U51" ca="1">_xll.xValue(D16,T3,U12,,,U13,U11)</f>
+        <f t="array" ref="T16:U51">_xll.xValue(D16,T3,U12,,,U13,U11)</f>
         <v>google 0.50 0.50</v>
       </c>
       <c r="U16" s="9">
-        <f ca="1"/>
         <v>50.250643505236695</v>
       </c>
       <c r="V16" s="20">
@@ -2615,18 +2475,16 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9">
-        <f ca="1">S17*EXP(0.5*1%)</f>
+        <f>S17*EXP(0.5*1%)</f>
         <v>95.476143457621049</v>
       </c>
       <c r="S17" s="9">
         <v>94.999954205523721</v>
       </c>
       <c r="T17" t="str">
-        <f ca="1"/>
         <v>amazon 0.50 0.50</v>
       </c>
       <c r="U17" s="9">
-        <f ca="1"/>
         <v>95.476143613249917</v>
       </c>
       <c r="V17" s="20">
@@ -2636,27 +2494,22 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C18" s="3" t="str">
-        <f t="array" aca="1" ref="C18:H30" ca="1">_xll.xViewDLM(D16)</f>
+        <f t="array" ref="C18:H30">_xll.xViewDLM(D16)</f>
         <v/>
       </c>
       <c r="D18" s="3" t="str">
-        <f ca="1"/>
         <v>dynamics</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f ca="1"/>
         <v>alpha</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f ca="1"/>
         <v>beta</v>
       </c>
       <c r="G18" s="4" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H18" s="5" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="I18" s="6"/>
@@ -2666,18 +2519,16 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9">
-        <f ca="1">S18*EXP(0.5*1%)</f>
+        <f>S18*EXP(0.5*1%)</f>
         <v>22.612858675930948</v>
       </c>
       <c r="S18" s="9">
         <v>22.50007657277181</v>
       </c>
       <c r="T18" t="str">
-        <f ca="1"/>
         <v>starbucks 0.50 0.50</v>
       </c>
       <c r="U18" s="9">
-        <f ca="1"/>
         <v>22.612857494939018</v>
       </c>
       <c r="V18" s="20">
@@ -2687,27 +2538,21 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C19" s="4" t="str">
-        <f ca="1"/>
         <v>google</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f ca="1"/>
         <v>subnormal</v>
       </c>
       <c r="E19" s="5">
-        <f ca="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="F19" s="5">
-        <f ca="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G19" s="4" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H19" s="5" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="I19" s="6"/>
@@ -2721,45 +2566,37 @@
         <v>2554.7757267453712</v>
       </c>
       <c r="T19" t="str">
-        <f ca="1"/>
         <v>google google 0.50 0.50</v>
       </c>
       <c r="U19" s="9">
-        <f ca="1"/>
         <v>2578.2661789716112</v>
       </c>
       <c r="V19" s="20">
         <v>2554.7757267453712</v>
       </c>
       <c r="W19" s="7">
-        <f ca="1">U19-U16*U16</f>
+        <f>U19-U16*U16</f>
         <v>53.139006281224283</v>
       </c>
       <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C20" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="D20" t="str">
-        <f ca="1"/>
         <v>surnormal</v>
       </c>
       <c r="E20" s="7">
-        <f ca="1"/>
         <v>200.00000000000006</v>
       </c>
       <c r="F20" s="7">
-        <f ca="1"/>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="G20" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H20" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J20" s="6"/>
@@ -2772,18 +2609,16 @@
         <v>4772.070931654479</v>
       </c>
       <c r="T20" t="str">
-        <f ca="1"/>
         <v>amazon google 0.50 0.50</v>
       </c>
       <c r="U20" s="9">
-        <f ca="1"/>
         <v>4819.5123831342207</v>
       </c>
       <c r="V20" s="20">
         <v>5022.445075340017</v>
       </c>
       <c r="W20" s="7">
-        <f ca="1">U20-U16*U17</f>
+        <f>U20-U16*U17</f>
         <v>21.774727170018195</v>
       </c>
       <c r="Y20" s="9"/>
@@ -2791,27 +2626,21 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C21" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="D21" t="str">
-        <f ca="1"/>
         <v>subnormal</v>
       </c>
       <c r="E21" s="7">
-        <f ca="1"/>
         <v>33.333333333333329</v>
       </c>
       <c r="F21" s="7">
-        <f ca="1"/>
         <v>0.75</v>
       </c>
       <c r="G21" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H21" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J21" s="6"/>
@@ -2824,45 +2653,37 @@
         <v>9133.8367515178907</v>
       </c>
       <c r="T21" t="str">
-        <f ca="1"/>
         <v>amazon amazon 0.50 0.50</v>
       </c>
       <c r="U21" s="9">
-        <f ca="1"/>
         <v>9224.8911323503617</v>
       </c>
       <c r="V21" s="20">
         <v>10112.557083136648</v>
       </c>
       <c r="W21" s="7">
-        <f ca="1">U21-U17*U17</f>
+        <f>U21-U17*U17</f>
         <v>109.19713309243889</v>
       </c>
       <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G22" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H22" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J22" s="6"/>
@@ -2875,18 +2696,16 @@
         <v>1129.1088278966085</v>
       </c>
       <c r="T22" t="str">
-        <f ca="1"/>
         <v>starbucks google 0.50 0.50</v>
       </c>
       <c r="U22" s="9">
-        <f ca="1"/>
         <v>1140.3114289264086</v>
       </c>
       <c r="V22" s="20">
         <v>1253.1607732194359</v>
       </c>
       <c r="W22" s="7">
-        <f ca="1">U22-U18*U16</f>
+        <f>U22-U18*U16</f>
         <v>4.0007883135083375</v>
       </c>
       <c r="Y22" s="9"/>
@@ -2894,27 +2713,21 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H23" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J23" s="6"/>
@@ -2927,18 +2740,16 @@
         <v>2131.5062021504082</v>
       </c>
       <c r="T23" t="str">
-        <f ca="1"/>
         <v>starbucks amazon 0.50 0.50</v>
       </c>
       <c r="U23" s="9">
-        <f ca="1"/>
         <v>2153.0412675187622</v>
       </c>
       <c r="V23" s="20">
         <v>2495.3110817065335</v>
       </c>
       <c r="W23" s="7">
-        <f ca="1">U23-U18*U17</f>
+        <f>U23-U18*U17</f>
         <v>-5.947162173990364</v>
       </c>
       <c r="Y23" s="9"/>
@@ -2946,27 +2757,21 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H24" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J24" s="6"/>
@@ -2979,232 +2784,192 @@
         <v>544.36045945920728</v>
       </c>
       <c r="T24" t="str">
-        <f ca="1"/>
         <v>starbucks starbucks 0.50 0.50</v>
       </c>
       <c r="U24" s="9">
-        <f ca="1"/>
         <v>548.65903254552404</v>
       </c>
       <c r="V24" s="20">
         <v>647.55147391399305</v>
       </c>
       <c r="W24" s="7">
-        <f ca="1">U24-U18*U18</f>
+        <f>U24-U18*U18</f>
         <v>37.317708459104324</v>
       </c>
       <c r="Y24" s="9"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G25" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H25" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="P25" s="9">
-        <f ca="1">R25-R16</f>
+        <f>R25-R16</f>
         <v>-3.7880731445694025</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="9">
-        <f ca="1">S25*EXP(1*1%)</f>
+        <f>S25*EXP(1*1%)</f>
         <v>46.462570716131566</v>
       </c>
       <c r="S25" s="7">
         <v>46.000260413065028</v>
       </c>
       <c r="T25" t="str">
-        <f ca="1"/>
         <v>google 1.00 1.00</v>
       </c>
       <c r="U25" s="7">
-        <f ca="1"/>
         <v>46.462565020808249</v>
       </c>
       <c r="V25" s="21">
         <v>50.000272818845943</v>
       </c>
       <c r="X25" s="17" t="str">
-        <f t="array" aca="1" ref="X25:Z33" ca="1">_xll.xValue(D16,T4,U12,,,U13,U11)</f>
+        <f t="array" ref="X25:Z33">_xll.xValue(D16,T4,U12,,,U13,U11)</f>
         <v>google 1.00 1.00</v>
       </c>
       <c r="Y25" s="18">
-        <f ca="1"/>
         <v>46.462428396446704</v>
       </c>
       <c r="Z25" s="17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G26" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H26" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="P26" s="9">
-        <f ca="1">R26-R17</f>
+        <f>R26-R17</f>
         <v>0.47845757741798423</v>
       </c>
       <c r="R26" s="9">
-        <f ca="1">S26*EXP(1*1%)</f>
+        <f>S26*EXP(1*1%)</f>
         <v>95.954601035039033</v>
       </c>
       <c r="S26" s="7">
         <v>94.999836802208151</v>
       </c>
       <c r="T26" t="str">
-        <f ca="1"/>
         <v>amazon 1.00 1.00</v>
       </c>
       <c r="U26" s="7">
-        <f ca="1"/>
         <v>95.954601969190364</v>
       </c>
       <c r="V26" s="21">
         <v>99.999834036142801</v>
       </c>
       <c r="X26" s="17" t="str">
-        <f ca="1"/>
         <v>amazon 1.00 1.00</v>
       </c>
       <c r="Y26" s="18">
-        <f ca="1"/>
         <v>95.95469713213491</v>
       </c>
       <c r="Z26" s="17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G27" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H27" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="P27" s="9">
-        <f ca="1">R27-R18</f>
+        <f>R27-R18</f>
         <v>0.11377973356324134</v>
       </c>
       <c r="R27" s="9">
-        <f ca="1">S27*EXP(1*1%)</f>
+        <f>S27*EXP(1*1%)</f>
         <v>22.726638409494189</v>
       </c>
       <c r="S27" s="7">
         <v>22.50050457899718</v>
       </c>
       <c r="T27" t="str">
-        <f ca="1"/>
         <v>starbucks 1.00 1.00</v>
       </c>
       <c r="U27" s="7">
-        <f ca="1"/>
         <v>22.72662860436218</v>
       </c>
       <c r="V27" s="21">
         <v>25.000388137689914</v>
       </c>
       <c r="X27" s="17" t="str">
-        <f ca="1"/>
         <v>starbucks 1.00 1.00</v>
       </c>
       <c r="Y27" s="18">
-        <f ca="1"/>
         <v>22.726340449128799</v>
       </c>
       <c r="Z27" s="17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G28" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H28" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J28" s="6"/>
@@ -3213,52 +2978,41 @@
         <v>2255.6622195290893</v>
       </c>
       <c r="T28" t="str">
-        <f ca="1"/>
         <v>google google 1.00 1.00</v>
       </c>
       <c r="U28" s="7">
-        <f ca="1"/>
         <v>2293.5689471641099</v>
       </c>
       <c r="V28" s="21">
         <v>2620.2864548711691</v>
       </c>
       <c r="X28" s="17" t="str">
-        <f ca="1"/>
         <v>google google 1.00 1.00</v>
       </c>
       <c r="Y28" s="18">
-        <f ca="1"/>
         <v>2335.5669128384684</v>
       </c>
       <c r="Z28" s="17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G29" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H29" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J29" s="6"/>
@@ -3267,52 +3021,41 @@
         <v>4417.5822830172983</v>
       </c>
       <c r="T29" t="str">
-        <f ca="1"/>
         <v>amazon google 1.00 1.00</v>
       </c>
       <c r="U29" s="7">
-        <f ca="1"/>
         <v>4505.2650985858845</v>
       </c>
       <c r="V29" s="21">
         <v>5044.79057984681</v>
       </c>
       <c r="X29" s="17" t="str">
-        <f ca="1"/>
         <v>amazon google 1.00 1.00</v>
       </c>
       <c r="Y29" s="18">
-        <f ca="1"/>
         <v>4511.8491698768121</v>
       </c>
       <c r="Z29" s="17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="C30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G30" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H30" s="7" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J30" s="6"/>
@@ -3321,26 +3064,21 @@
         <v>9242.7918454915416</v>
       </c>
       <c r="T30" t="str">
-        <f ca="1"/>
         <v>amazon amazon 1.00 1.00</v>
       </c>
       <c r="U30" s="7">
-        <f ca="1"/>
         <v>9427.265093697164</v>
       </c>
       <c r="V30" s="21">
         <v>10225.23606062171</v>
       </c>
       <c r="X30" s="17" t="str">
-        <f ca="1"/>
         <v>amazon amazon 1.00 1.00</v>
       </c>
       <c r="Y30" s="18">
-        <f ca="1"/>
         <v>9426.5431887968825</v>
       </c>
       <c r="Z30" s="17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3351,26 +3089,21 @@
         <v>1043.9483257120355</v>
       </c>
       <c r="T31" t="str">
-        <f ca="1"/>
         <v>starbucks google 1.00 1.00</v>
       </c>
       <c r="U31" s="7">
-        <f ca="1"/>
         <v>1064.5798956631425</v>
       </c>
       <c r="V31" s="21">
         <v>1256.3880030913922</v>
       </c>
       <c r="X31" s="17" t="str">
-        <f ca="1"/>
         <v>starbucks google 1.00 1.00</v>
       </c>
       <c r="Y31" s="18">
-        <f ca="1"/>
         <v>1065.7647819045646</v>
       </c>
       <c r="Z31" s="17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3397,63 +3130,58 @@
         <v>32</v>
       </c>
       <c r="K32" s="5">
-        <f ca="1">X3</f>
+        <f>X3</f>
         <v>0.5</v>
       </c>
       <c r="S32" s="7">
         <v>2125.518828254515</v>
       </c>
       <c r="T32" t="str">
-        <f ca="1"/>
         <v>starbucks amazon 1.00 1.00</v>
       </c>
       <c r="U32" s="7">
-        <f ca="1"/>
         <v>2168.798536799241</v>
       </c>
       <c r="V32" s="21">
         <v>2490.6275448812899</v>
       </c>
       <c r="X32" s="17" t="str">
-        <f ca="1"/>
         <v>starbucks amazon 1.00 1.00</v>
       </c>
       <c r="Y32" s="18">
-        <f ca="1"/>
         <v>2168.8987778657665</v>
       </c>
       <c r="Z32" s="17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B33">
-        <f t="array" aca="1" ref="B33:B35" ca="1">TRANSPOSE(D8:F8)</f>
+        <f t="array" ref="B33:B35">TRANSPOSE(D8:F8)</f>
         <v>50</v>
       </c>
       <c r="C33" t="str">
-        <f ca="1">C19</f>
+        <f>C19</f>
         <v>google</v>
       </c>
       <c r="D33" s="7">
-        <f ca="1">IF(F19=0,0.000001,F19)</f>
+        <f>IF(F19=0,0.000001,F19)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="E33" s="7">
-        <f ca="1">IF(F19=0,E19/D33,E19)</f>
+        <f>IF(F19=0,E19/D33,E19)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="F33" s="11">
-        <f ca="1">IF(D19="subnormal",E33-B33,E33+B33)</f>
+        <f>IF(D19="subnormal",E33-B33,E33+B33)</f>
         <v>16.666666666666671</v>
       </c>
       <c r="G33" s="7">
-        <f ca="1">F33^2*(EXP(D33^2)-1)</f>
+        <f>F33^2*(EXP(D33^2)-1)</f>
         <v>120.36928182231684</v>
       </c>
       <c r="H33" s="7">
-        <f ca="1">SQRT(G33)</f>
+        <f>SQRT(G33)</f>
         <v>10.971293534598226</v>
       </c>
       <c r="J33" s="6"/>
@@ -3462,99 +3190,91 @@
         <v>594.72838389593767</v>
       </c>
       <c r="T33" t="str">
-        <f ca="1"/>
         <v>starbucks starbucks 1.00 1.00</v>
       </c>
       <c r="U33" s="7">
-        <f ca="1"/>
         <v>602.83449581503703</v>
       </c>
       <c r="V33" s="21">
         <v>677.36004466031011</v>
       </c>
       <c r="X33" s="17" t="str">
-        <f ca="1"/>
         <v>starbucks starbucks 1.00 1.00</v>
       </c>
       <c r="Y33" s="18">
-        <f ca="1"/>
         <v>601.36234481090435</v>
       </c>
       <c r="Z33" s="17" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B34">
-        <f ca="1"/>
         <v>100</v>
       </c>
       <c r="C34" t="str">
-        <f ca="1">C20</f>
+        <f>C20</f>
         <v>amazon</v>
       </c>
       <c r="D34" s="7">
-        <f ca="1">IF(F20=0,0.0000000001,F20)</f>
+        <f>IF(F20=0,0.0000000001,F20)</f>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="E34" s="7">
-        <f ca="1">IF(F20=0,E20/D34,E20)</f>
+        <f>IF(F20=0,E20/D34,E20)</f>
         <v>200.00000000000006</v>
       </c>
       <c r="F34" s="11">
-        <f ca="1">IF(D20="subnormal",E34-B34,E34+B34)</f>
+        <f>IF(D20="subnormal",E34-B34,E34+B34)</f>
         <v>300.00000000000006</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ref="G34:G35" ca="1" si="0">F34^2*(EXP(D34^2)-1)</f>
+        <f t="shared" ref="G34:G35" si="0">F34^2*(EXP(D34^2)-1)</f>
         <v>225.2814845215668</v>
       </c>
       <c r="H34" s="7">
-        <f ca="1">SQRT(G34)</f>
+        <f>SQRT(G34)</f>
         <v>15.009379884644362</v>
       </c>
       <c r="J34" s="8" t="str">
-        <f ca="1">C33&amp;"/"&amp;C34</f>
+        <f>C33&amp;"/"&amp;C34</f>
         <v>google/amazon</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L34" s="1">
-        <f ca="1">D12*(1-D6)+D6</f>
+        <f>D12*(1-D6)+D6</f>
         <v>0.3</v>
       </c>
       <c r="M34" t="s">
         <v>28</v>
       </c>
       <c r="N34">
-        <f ca="1">IF(D19="subnormal",-1,1)*IF(D20="subnormal",-1,1)</f>
+        <f>IF(D19="subnormal",-1,1)*IF(D20="subnormal",-1,1)</f>
         <v>-1</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P34" s="10">
-        <f ca="1">N34*F33*F34*(EXP(N34*L34*D33*D34*K32)-1)</f>
+        <f>N34*F33*F34*(EXP(N34*L34*D33*D34*K32)-1)</f>
         <v>22.449450852147237</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>29</v>
       </c>
       <c r="R34" s="10">
-        <f ca="1">W72</f>
+        <f>W72</f>
         <v>21.774727170018195</v>
       </c>
       <c r="S34" s="19">
         <v>-3.9997573158002782</v>
       </c>
       <c r="T34" t="str">
-        <f ca="1"/>
         <v>google 0.50 0.50 - 1.00 1.00</v>
       </c>
       <c r="U34" s="19">
-        <f ca="1"/>
         <v>-3.7880784844280515</v>
       </c>
       <c r="V34" s="21">
@@ -3563,74 +3283,71 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B35">
-        <f ca="1"/>
         <v>25</v>
       </c>
       <c r="C35" t="str">
-        <f ca="1">C21</f>
+        <f>C21</f>
         <v>starbucks</v>
       </c>
       <c r="D35" s="7">
-        <f ca="1">IF(F21=0,0.0000000001,F21)</f>
+        <f>IF(F21=0,0.0000000001,F21)</f>
         <v>0.75</v>
       </c>
       <c r="E35" s="7">
-        <f ca="1">IF(F21=0,E21/D35,E21)</f>
+        <f>IF(F21=0,E21/D35,E21)</f>
         <v>33.333333333333329</v>
       </c>
       <c r="F35" s="11">
-        <f ca="1">IF(D21="subnormal",E35-B35,E35+B35)</f>
+        <f>IF(D21="subnormal",E35-B35,E35+B35)</f>
         <v>8.3333333333333286</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>52.434351177798455</v>
       </c>
       <c r="H35" s="7">
-        <f ca="1">SQRT(G35)</f>
+        <f>SQRT(G35)</f>
         <v>7.241156756886185</v>
       </c>
       <c r="J35" s="6" t="str">
-        <f ca="1">C34&amp;"/"&amp;C35</f>
+        <f>C34&amp;"/"&amp;C35</f>
         <v>amazon/starbucks</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="8">
-        <f ca="1">E13*(1-D6)+D6</f>
+        <f>E13*(1-D6)+D6</f>
         <v>-0.1</v>
       </c>
       <c r="M35" t="s">
         <v>28</v>
       </c>
       <c r="N35">
-        <f ca="1">IF(D20="subnormal",-1,1)*IF(D21="subnormal",-1,1)</f>
+        <f>IF(D20="subnormal",-1,1)*IF(D21="subnormal",-1,1)</f>
         <v>-1</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P35" s="10">
-        <f ca="1">N35*F34*F35*(EXP(N35*L35*D34*D35*K32)-1)</f>
+        <f>N35*F34*F35*(EXP(N35*L35*D34*D35*K32)-1)</f>
         <v>-4.6918972791198925</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>29</v>
       </c>
       <c r="R35" s="10">
-        <f ca="1">Y72</f>
+        <f>Y72</f>
         <v>-5.947162173990364</v>
       </c>
       <c r="S35" s="19">
         <v>-1.1740332356118037E-4</v>
       </c>
       <c r="T35" t="str">
-        <f ca="1"/>
         <v>amazon 0.50 0.50 - 1.00 1.00</v>
       </c>
       <c r="U35" s="19">
-        <f ca="1"/>
         <v>0.4784583559430402</v>
       </c>
       <c r="V35" s="21">
@@ -3645,39 +3362,37 @@
         <v>25</v>
       </c>
       <c r="L36" s="8">
-        <f ca="1">D13*(1-D6)+D6</f>
+        <f>D13*(1-D6)+D6</f>
         <v>0.1</v>
       </c>
       <c r="M36" t="s">
         <v>28</v>
       </c>
       <c r="N36">
-        <f ca="1">IF(D19="subnormal",-1,1)*IF(D21="subnormal",-1,1)</f>
+        <f>IF(D19="subnormal",-1,1)*IF(D21="subnormal",-1,1)</f>
         <v>1</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P36" s="10">
-        <f ca="1">N36*F33*F35*(EXP(N36*L36*D33*D35*K32)-1)</f>
+        <f>N36*F33*F35*(EXP(N36*L36*D33*D35*K32)-1)</f>
         <v>3.1604214117286129</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="R36" s="10">
-        <f ca="1">W73</f>
+        <f>W73</f>
         <v>4.0007883135083375</v>
       </c>
       <c r="S36" s="19">
         <v>4.2800622399665036E-4</v>
       </c>
       <c r="T36" t="str">
-        <f ca="1"/>
         <v>starbucks 0.50 0.50 - 1.00 1.00</v>
       </c>
       <c r="U36" s="19">
-        <f ca="1"/>
         <v>0.11377110942236469</v>
       </c>
       <c r="V36" s="21">
@@ -3691,22 +3406,20 @@
         <v>109.65788712199227</v>
       </c>
       <c r="T37" t="str">
-        <f ca="1"/>
         <v>google google 0.50 0.50 - 1.00 1.00</v>
       </c>
       <c r="U37" s="7">
-        <f ca="1"/>
         <v>104.05245292089364</v>
       </c>
       <c r="V37" s="21">
         <v>65.517046672380232</v>
       </c>
       <c r="W37" s="7">
-        <f t="array" aca="1" ref="W37:W42" ca="1">W19:W24</f>
+        <f t="array" ref="W37:W42">W19:W24</f>
         <v>53.139006281224283</v>
       </c>
       <c r="Y37" s="10">
-        <f ca="1">U37-U34*U34</f>
+        <f>U37-U34*U34</f>
         <v>89.702914316706924</v>
       </c>
     </row>
@@ -3717,18 +3430,15 @@
         <v>27.271466956760115</v>
       </c>
       <c r="T38" t="str">
-        <f ca="1"/>
         <v>amazon google 0.50 0.50 - 1.00 1.00</v>
       </c>
       <c r="U38" s="7">
-        <f ca="1"/>
         <v>24.925026370739346</v>
       </c>
       <c r="V38" s="21">
         <v>22.337743324818906</v>
       </c>
       <c r="W38" s="7">
-        <f ca="1"/>
         <v>21.774727170018195</v>
       </c>
     </row>
@@ -3746,18 +3456,15 @@
         <v>108.98096942963534</v>
       </c>
       <c r="T39" t="str">
-        <f ca="1"/>
         <v>amazon amazon 0.50 0.50 - 1.00 1.00</v>
       </c>
       <c r="U39" s="7">
-        <f ca="1"/>
         <v>109.92012331853519</v>
       </c>
       <c r="V39" s="21">
         <v>112.70654695394161</v>
       </c>
       <c r="W39" s="7">
-        <f ca="1"/>
         <v>109.19713309243889</v>
       </c>
     </row>
@@ -3775,18 +3482,15 @@
         <v>5.1584568987396073</v>
       </c>
       <c r="T40" t="str">
-        <f ca="1"/>
         <v>starbucks google 0.50 0.50 - 1.00 1.00</v>
       </c>
       <c r="U40" s="7">
-        <f ca="1"/>
         <v>4.5089139598671686</v>
       </c>
       <c r="V40" s="21">
         <v>3.2172061836399646</v>
       </c>
       <c r="W40" s="7">
-        <f ca="1"/>
         <v>4.0007883135083375</v>
       </c>
     </row>
@@ -3804,18 +3508,15 @@
         <v>-6.0161859483439963</v>
       </c>
       <c r="T41" t="str">
-        <f ca="1"/>
         <v>starbucks amazon 0.50 0.50 - 1.00 1.00</v>
       </c>
       <c r="U41" s="7">
-        <f ca="1"/>
         <v>-5.8557281459403576</v>
       </c>
       <c r="V41" s="21">
         <v>-4.7062732320813385</v>
       </c>
       <c r="W41" s="7">
-        <f ca="1"/>
         <v>-5.947162173990364</v>
       </c>
     </row>
@@ -3833,18 +3534,15 @@
         <v>50.388654699143515</v>
       </c>
       <c r="T42" t="str">
-        <f ca="1"/>
         <v>starbucks starbucks 0.50 0.50 - 1.00 1.00</v>
       </c>
       <c r="U42" s="7">
-        <f ca="1"/>
         <v>48.695231506868787</v>
       </c>
       <c r="V42" s="21">
         <v>29.815772011327422</v>
       </c>
       <c r="W42" s="7">
-        <f ca="1"/>
         <v>37.317708459104324</v>
       </c>
     </row>
@@ -3859,11 +3557,9 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="T43" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U43" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3878,11 +3574,9 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="T44" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U44" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3897,11 +3591,9 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="T45" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U45" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3916,11 +3608,9 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="T46" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U46" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3935,11 +3625,9 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="T47" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U47" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3954,11 +3642,9 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="T48" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U48" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3973,11 +3659,9 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="T49" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U49" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3992,11 +3676,9 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="T50" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U50" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4011,11 +3693,9 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="T51" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U51" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4088,11 +3768,11 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="V57" t="str">
-        <f t="array" aca="1" ref="V57:V59" ca="1">TRANSPOSE(D4:F4)</f>
+        <f t="array" ref="V57:V59">TRANSPOSE(D4:F4)</f>
         <v>google</v>
       </c>
       <c r="W57" s="9">
-        <f ca="1">U16</f>
+        <f>U16</f>
         <v>50.250643505236695</v>
       </c>
     </row>
@@ -4107,11 +3787,10 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="V58" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="W58" s="9">
-        <f ca="1">U17</f>
+        <f>U17</f>
         <v>95.476143613249917</v>
       </c>
     </row>
@@ -4126,11 +3805,10 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="V59" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="W59" s="9">
-        <f ca="1">U18</f>
+        <f>U18</f>
         <v>22.612857494939018</v>
       </c>
     </row>
@@ -4161,95 +3839,87 @@
     </row>
     <row r="62" spans="3:25" x14ac:dyDescent="0.4">
       <c r="W62" s="7">
-        <f t="array" aca="1" ref="W62:Y62" ca="1">TRANSPOSE(U64:U66)</f>
+        <f t="array" ref="W62:Y62">TRANSPOSE(U64:U66)</f>
         <v>50.250643505236695</v>
       </c>
       <c r="X62" s="7">
-        <f ca="1"/>
         <v>95.476143613249917</v>
       </c>
       <c r="Y62" s="7">
-        <f ca="1"/>
         <v>22.612857494939018</v>
       </c>
     </row>
     <row r="63" spans="3:25" x14ac:dyDescent="0.4">
       <c r="W63" t="str">
-        <f t="array" aca="1" ref="W63:Y63" ca="1">TRANSPOSE(V64:V66)</f>
+        <f t="array" ref="W63:Y63">TRANSPOSE(V64:V66)</f>
         <v>google</v>
       </c>
       <c r="X63" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="Y63" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
     </row>
     <row r="64" spans="3:25" x14ac:dyDescent="0.4">
       <c r="U64" s="7">
-        <f t="array" aca="1" ref="U64:U66" ca="1">W57:W59</f>
+        <f t="array" ref="U64:U66">W57:W59</f>
         <v>50.250643505236695</v>
       </c>
       <c r="V64" t="str">
-        <f t="array" aca="1" ref="V64:V66" ca="1">V57:V59</f>
+        <f t="array" ref="V64:V66">V57:V59</f>
         <v>google</v>
       </c>
       <c r="W64" s="9">
-        <f ca="1">U19</f>
+        <f>U19</f>
         <v>2578.2661789716112</v>
       </c>
       <c r="X64" s="9">
-        <f ca="1">W65</f>
+        <f>W65</f>
         <v>4819.5123831342207</v>
       </c>
       <c r="Y64" s="9">
-        <f ca="1">W66</f>
+        <f>W66</f>
         <v>1140.3114289264086</v>
       </c>
     </row>
     <row r="65" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U65" s="7">
-        <f ca="1"/>
         <v>95.476143613249917</v>
       </c>
       <c r="V65" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="W65" s="9">
-        <f ca="1">U20</f>
+        <f>U20</f>
         <v>4819.5123831342207</v>
       </c>
       <c r="X65" s="9">
-        <f ca="1">U21</f>
+        <f>U21</f>
         <v>9224.8911323503617</v>
       </c>
       <c r="Y65" s="9">
-        <f ca="1">X66</f>
+        <f>X66</f>
         <v>2153.0412675187622</v>
       </c>
     </row>
     <row r="66" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U66" s="7">
-        <f ca="1"/>
         <v>22.612857494939018</v>
       </c>
       <c r="V66" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="W66" s="9">
-        <f ca="1">U22</f>
+        <f>U22</f>
         <v>1140.3114289264086</v>
       </c>
       <c r="X66" s="9">
-        <f ca="1">U23</f>
+        <f>U23</f>
         <v>2153.0412675187622</v>
       </c>
       <c r="Y66" s="9">
-        <f ca="1">U24</f>
+        <f>U24</f>
         <v>548.65903254552404</v>
       </c>
     </row>
@@ -4260,95 +3930,87 @@
     </row>
     <row r="69" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W69" s="7">
-        <f t="array" aca="1" ref="W69:Y69" ca="1">W62:Y62</f>
+        <f t="array" ref="W69:Y69">W62:Y62</f>
         <v>50.250643505236695</v>
       </c>
       <c r="X69" s="7">
-        <f ca="1"/>
         <v>95.476143613249917</v>
       </c>
       <c r="Y69" s="7">
-        <f ca="1"/>
         <v>22.612857494939018</v>
       </c>
     </row>
     <row r="70" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W70" t="str">
-        <f t="array" aca="1" ref="W70:Y70" ca="1">TRANSPOSE(V71:V73)</f>
+        <f t="array" ref="W70:Y70">TRANSPOSE(V71:V73)</f>
         <v>google</v>
       </c>
       <c r="X70" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="Y70" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
     </row>
     <row r="71" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U71" s="7">
-        <f t="array" aca="1" ref="U71:U73" ca="1">U64:U66</f>
+        <f t="array" ref="U71:U73">U64:U66</f>
         <v>50.250643505236695</v>
       </c>
       <c r="V71" t="str">
-        <f t="array" aca="1" ref="V71:V73" ca="1">V64:V66</f>
+        <f t="array" ref="V71:V73">V64:V66</f>
         <v>google</v>
       </c>
       <c r="W71" s="9">
-        <f t="shared" ref="W71:Y73" ca="1" si="1">W64-$U71*W$69</f>
+        <f t="shared" ref="W71:Y73" si="1">W64-$U71*W$69</f>
         <v>53.139006281224283</v>
       </c>
       <c r="X71" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>21.774727170018195</v>
       </c>
       <c r="Y71" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>4.0007883135083375</v>
       </c>
     </row>
     <row r="72" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U72" s="7">
-        <f ca="1"/>
         <v>95.476143613249917</v>
       </c>
       <c r="V72" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="W72" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>21.774727170018195</v>
       </c>
       <c r="X72" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>109.19713309243889</v>
       </c>
       <c r="Y72" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-5.947162173990364</v>
       </c>
     </row>
     <row r="73" spans="20:25" x14ac:dyDescent="0.4">
       <c r="U73" s="7">
-        <f ca="1"/>
         <v>22.612857494939018</v>
       </c>
       <c r="V73" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="W73" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>4.0007883135083375</v>
       </c>
       <c r="X73" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>-5.947162173990364</v>
       </c>
       <c r="Y73" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>37.317708459104324</v>
       </c>
     </row>
@@ -4359,107 +4021,101 @@
     </row>
     <row r="76" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W76" s="7">
-        <f ca="1">SQRT(W71)</f>
+        <f>SQRT(W71)</f>
         <v>7.2896506282005236</v>
       </c>
       <c r="X76" s="7">
-        <f ca="1">SQRT(X72)</f>
+        <f>SQRT(X72)</f>
         <v>10.449743207009391</v>
       </c>
       <c r="Y76" s="7">
-        <f ca="1">SQRT(Y73)</f>
+        <f>SQRT(Y73)</f>
         <v>6.1088221826391642</v>
       </c>
     </row>
     <row r="77" spans="20:25" x14ac:dyDescent="0.4">
       <c r="W77" t="str">
-        <f t="array" aca="1" ref="W77:Y77" ca="1">TRANSPOSE(V78:V80)</f>
+        <f t="array" ref="W77:Y77">TRANSPOSE(V78:V80)</f>
         <v>google</v>
       </c>
       <c r="X77" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="Y77" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
     </row>
     <row r="78" spans="20:25" x14ac:dyDescent="0.4">
       <c r="T78" s="10">
-        <f ca="1">U78/W57</f>
+        <f>U78/W57</f>
         <v>0.14506581646941213</v>
       </c>
       <c r="U78" s="7">
-        <f t="array" aca="1" ref="U78:U80" ca="1">TRANSPOSE(W76:Y76)</f>
+        <f t="array" ref="U78:U80">TRANSPOSE(W76:Y76)</f>
         <v>7.2896506282005236</v>
       </c>
       <c r="V78" t="str">
-        <f t="array" aca="1" ref="V78:V80" ca="1">V71:V73</f>
+        <f t="array" ref="V78:V80">V71:V73</f>
         <v>google</v>
       </c>
       <c r="W78" s="9">
-        <f t="shared" ref="W78:Y80" ca="1" si="2">W71/$U78/W$76</f>
+        <f t="shared" ref="W78:Y80" si="2">W71/$U78/W$76</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="X78" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.28585144347144498</v>
       </c>
       <c r="Y78" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>8.98424061952042E-2</v>
       </c>
     </row>
     <row r="79" spans="20:25" x14ac:dyDescent="0.4">
       <c r="T79" s="10">
-        <f ca="1">U79/W58</f>
+        <f>U79/W58</f>
         <v>0.10944873568981481</v>
       </c>
       <c r="U79" s="7">
-        <f ca="1"/>
         <v>10.449743207009391</v>
       </c>
       <c r="V79" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="W79" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.28585144347144503</v>
       </c>
       <c r="X79" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="Y79" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-9.3163689561357926E-2</v>
       </c>
     </row>
     <row r="80" spans="20:25" x14ac:dyDescent="0.4">
       <c r="T80" s="10">
-        <f ca="1">U80/W59</f>
+        <f>U80/W59</f>
         <v>0.27014817494898108</v>
       </c>
       <c r="U80" s="7">
-        <f ca="1"/>
         <v>6.1088221826391642</v>
       </c>
       <c r="V80" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="W80" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>8.9842406195204214E-2</v>
       </c>
       <c r="X80" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>-9.3163689561357926E-2</v>
       </c>
       <c r="Y80" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4539,15 +4195,13 @@
         <v>4</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f t="array" aca="1" ref="I6:K6" ca="1">D4:F4</f>
+        <f t="array" ref="I6:K6">D4:F4</f>
         <v>google</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="K6" s="8" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
     </row>
@@ -4627,11 +4281,11 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f ca="1">D12</f>
+        <f>D12</f>
         <v>0.3</v>
       </c>
       <c r="F11">
-        <f ca="1">D13</f>
+        <f>D13</f>
         <v>0.1</v>
       </c>
     </row>
@@ -4643,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <f ca="1">E13</f>
+        <f>E13</f>
         <v>-0.1</v>
       </c>
     </row>
@@ -4674,7 +4328,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H4:J4,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
+        <f>_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H4:J4,H7:H8,I7:K8,D11:F13,D6,"dlm")</f>
         <v>dlm</v>
       </c>
       <c r="E16" s="4"/>
@@ -4749,7 +4403,7 @@
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C23" t="str">
-        <f t="array" aca="1" ref="C23:C25" ca="1">TRANSPOSE(D4:F4)</f>
+        <f t="array" ref="C23:C25">TRANSPOSE(D4:F4)</f>
         <v>google</v>
       </c>
       <c r="D23">
@@ -4761,7 +4415,6 @@
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C24" t="str">
-        <f ca="1"/>
         <v>amazon</v>
       </c>
       <c r="D24">
@@ -4773,7 +4426,6 @@
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C25" t="str">
-        <f ca="1"/>
         <v>starbucks</v>
       </c>
       <c r="D25">
@@ -4788,7 +4440,7 @@
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" s="4" t="str">
-        <f ca="1">_xll.xPutBaskets(C23:C25,D23:D25,D30,D32:F32,"bkt")</f>
+        <f>_xll.xPutBaskets(C23:C25,D23:D25,D30,D32:F32,"bkt")</f>
         <v>bkt</v>
       </c>
       <c r="J27" s="6"/>
@@ -4819,7 +4471,7 @@
         <v>31</v>
       </c>
       <c r="N31" s="25">
-        <f ca="1">E32*EXP(1.5%)</f>
+        <f>E32*EXP(1.5%)</f>
         <v>101.51130646157189</v>
       </c>
     </row>
@@ -4828,15 +4480,15 @@
         <v>36</v>
       </c>
       <c r="D32">
-        <f ca="1">0.9*E32</f>
+        <f>0.9*E32</f>
         <v>90</v>
       </c>
       <c r="E32" s="25">
-        <f ca="1">E8</f>
+        <f>E8</f>
         <v>100</v>
       </c>
       <c r="F32">
-        <f ca="1">1.1*E32</f>
+        <f>1.1*E32</f>
         <v>110.00000000000001</v>
       </c>
       <c r="H32"/>
@@ -4854,51 +4506,44 @@
       <c r="J33" s="6"/>
       <c r="K33" s="5"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="24">
+      <c r="M33" s="24" t="e">
         <f ca="1">_xll.sBlackImplied($D$30,N33,,Q33*EXP(2%),$N$31)</f>
-        <v>0.1499950776669661</v>
+        <v>#NAME?</v>
       </c>
       <c r="N33">
-        <f t="array" aca="1" ref="N33:N35" ca="1">TRANSPOSE(D32:F32)</f>
+        <f t="array" ref="N33:N35">TRANSPOSE(D32:F32)</f>
         <v>90</v>
       </c>
       <c r="P33" s="22" t="str">
-        <f t="array" aca="1" ref="P33:W42" ca="1">_xll.xValue(D16,C27,TRUE,,,500000,TRUE)</f>
+        <f t="array" ref="P33:W42">_xll.xValue(D16,C27,TRUE,,,500000,TRUE)</f>
         <v>basket strike 90.00</v>
       </c>
       <c r="Q33">
-        <f ca="1"/>
         <v>12.962626451582683</v>
       </c>
       <c r="R33" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S33" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T33" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U33" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V33" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W33" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Z33">
         <v>12.021580978275541</v>
       </c>
       <c r="AA33">
-        <f ca="1">Z33*EXP(-2%)</f>
+        <f>Z33*EXP(-2%)</f>
         <v>11.78353772595541</v>
       </c>
     </row>
@@ -4908,51 +4553,42 @@
       <c r="F34" s="11"/>
       <c r="G34" s="7"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="24">
+      <c r="M34" s="24" t="e">
         <f ca="1">_xll.sBlackImplied($D$30,N34,,Q34*EXP(2%),$N$31)</f>
-        <v>0.14999706981344257</v>
+        <v>#NAME?</v>
       </c>
       <c r="N34">
-        <f ca="1"/>
         <v>100</v>
       </c>
       <c r="P34" t="str">
-        <f ca="1"/>
         <v>basket strike 100.00</v>
       </c>
       <c r="Q34">
-        <f ca="1"/>
         <v>6.6744408747219808</v>
       </c>
       <c r="R34" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S34" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T34" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U34" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V34" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W34" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Z34">
         <v>5.9784072334057941</v>
       </c>
       <c r="AA34">
-        <f ca="1">Z34*EXP(-2%)</f>
+        <f>Z34*EXP(-2%)</f>
         <v>5.8600268386718684</v>
       </c>
     </row>
@@ -4964,51 +4600,42 @@
       <c r="J35" s="6"/>
       <c r="K35" s="5"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="24">
+      <c r="M35" s="24" t="e">
         <f ca="1">_xll.sBlackImplied($D$30,N35,,Q35*EXP(2%),$N$31)</f>
-        <v>0.14999662729235297</v>
+        <v>#NAME?</v>
       </c>
       <c r="N35">
-        <f ca="1"/>
         <v>110.00000000000001</v>
       </c>
       <c r="P35" t="str">
-        <f ca="1"/>
         <v>basket strike 110.00</v>
       </c>
       <c r="Q35">
-        <f ca="1"/>
         <v>2.9024499984701597</v>
       </c>
       <c r="R35" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S35" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T35" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U35" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V35" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W35" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Z35">
         <v>2.5001371685306366</v>
       </c>
       <c r="AA35">
-        <f ca="1">Z35*EXP(-2%)</f>
+        <f>Z35*EXP(-2%)</f>
         <v>2.4506311356786377</v>
       </c>
     </row>
@@ -5018,35 +4645,27 @@
       <c r="L36" s="8"/>
       <c r="O36" s="6"/>
       <c r="P36" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q36" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="R36" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S36" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T36" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U36" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V36" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W36" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5054,35 +4673,27 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="P37" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q37" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="R37" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S37" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T37" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U37" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V37" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W37" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5092,40 +4703,32 @@
       <c r="L38" t="s">
         <v>37</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="23" t="e">
         <f ca="1">M34</f>
-        <v>0.14999706981344257</v>
+        <v>#NAME?</v>
       </c>
       <c r="P38" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q38" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="R38" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S38" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T38" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U38" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V38" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W38" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5142,40 +4745,32 @@
       <c r="L39" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="7" t="e">
         <f ca="1">(M33-M35)/(N33-N35)*N34</f>
-        <v>7.7481269343537778E-6</v>
+        <v>#NAME?</v>
       </c>
       <c r="P39" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q39" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="R39" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S39" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T39" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U39" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V39" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W39" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5190,35 +4785,27 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="P40" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q40" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="R40" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S40" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T40" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U40" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V40" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W40" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5233,35 +4820,27 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="P41" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q41" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="R41" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S41" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T41" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U41" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V41" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W41" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5276,35 +4855,27 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="P42" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q42" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="R42" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S42" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T42" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U42" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V42" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W42" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5527,8 +5098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5555,13 +5126,13 @@
         <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -5578,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
@@ -5589,22 +5160,20 @@
         <v>7</v>
       </c>
       <c r="D6" s="13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f t="array" aca="1" ref="I6:K6" ca="1">D4:F4</f>
-        <v>google</v>
+        <f t="array" ref="I6:K6">D4:F4</f>
+        <v>uber</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f ca="1"/>
-        <v>amazon</v>
+        <v>lyft</v>
       </c>
       <c r="K6" s="8" t="str">
-        <f ca="1"/>
-        <v>starbucks</v>
+        <v>luckin</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.4">
@@ -5627,13 +5196,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="12">
-        <v>100</v>
+        <v>43.71</v>
       </c>
       <c r="E8" s="12">
-        <v>100</v>
+        <v>63.8</v>
       </c>
       <c r="F8" s="12">
-        <v>100</v>
+        <v>26.96</v>
       </c>
       <c r="H8" s="15">
         <v>0.75</v>
@@ -5653,15 +5222,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="13">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="E9" s="13">
-        <f ca="1">D9</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="13">
-        <f ca="1">E9</f>
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.4">
@@ -5672,12 +5239,10 @@
         <v>-0.1</v>
       </c>
       <c r="E10" s="12">
-        <f ca="1">D10</f>
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="F10" s="12">
-        <f ca="1">E10</f>
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.4">
@@ -5689,40 +5254,34 @@
       </c>
       <c r="E11">
         <f ca="1">D12</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
         <f ca="1">D13</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.4">
       <c r="D12" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12">
         <f ca="1">E13</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.4">
       <c r="D13" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="N14">
-        <f ca="1">0.24%*100</f>
-        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.4">
@@ -5746,10 +5305,7 @@
       </c>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4" t="str">
-        <f ca="1">_xll.xPutDLM(D4:F4,D8:F8,D9:F9,D10:F10,D5,H4:J4,H7:H8,I7:K8,D11:F13,D6,"dlm1")</f>
-        <v>dlm1</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5780,10 +5336,18 @@
       <c r="O18" s="9"/>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.4">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="12">
+        <v>43.71</v>
+      </c>
+      <c r="E19" s="12">
+        <v>63.8</v>
+      </c>
+      <c r="F19" s="12">
+        <v>26.96</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
@@ -5793,7 +5357,7 @@
         <v>21</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>100000</v>
       </c>
       <c r="O19" s="9"/>
     </row>
@@ -5812,7 +5376,7 @@
         <v>23</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="9"/>
     </row>
@@ -5821,14 +5385,11 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="J21" s="6">
-        <f ca="1">-0.15%*100</f>
-        <v>-0.15</v>
-      </c>
+      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="O21" s="9"/>
     </row>
@@ -5849,7 +5410,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="23">
-        <v>0.01</v>
+        <v>0.76</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
@@ -5861,7 +5422,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="23">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
@@ -5873,122 +5434,149 @@
         <v>43</v>
       </c>
       <c r="D25" s="8">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
+      <c r="N25" s="1">
+        <f ca="1">N27-N26</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="3:25" x14ac:dyDescent="0.4">
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
+      <c r="N26" s="8">
+        <v>0.96495976051676235</v>
+      </c>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C27" s="4"/>
       <c r="D27" t="str">
-        <f ca="1">_xll.xPutAutocall(D4:F4,D20,D21,D22,D23,D24,D25,"autocall")</f>
+        <f ca="1">_xll.xPutAutocall(D4:F4,D19:F19,D20,D21,D22,D23,D24,D25,"autocall")</f>
         <v>autocall</v>
       </c>
-      <c r="H27" t="str">
-        <f ca="1">_xll.xPutAutocall(D4:F4,D20,D21,D22,D23,D24,D25,"autocall1")</f>
-        <v>autocall1</v>
-      </c>
+      <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="M27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>45</v>
+      <c r="M27" s="4" t="str">
+        <f t="array" aca="1" ref="M27:Y46" ca="1">_xll.xValue(D16,D27,TRUE,,,N19,N20)</f>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N27" s="6">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.4">
       <c r="D28" t="str">
         <f ca="1">_xll.xPayoffIds(D27)</f>
-        <v>autocall strike 1 KO 100 CPN 10 2 periods of 3m</v>
-      </c>
-      <c r="H28" t="str">
-        <f ca="1">_xll.xPayoffIds(H27)</f>
-        <v>autocall strike 1 KO 100 CPN 10 2 periods of 3m</v>
-      </c>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
-      <c r="M28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>45</v>
+      <c r="M28" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N28" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.4">
@@ -5996,44 +5584,57 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="M29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y29" s="4" t="s">
-        <v>45</v>
+      <c r="M29" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N29" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.4">
@@ -6041,44 +5642,57 @@
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="M30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>45</v>
+      <c r="M30" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N30" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.4">
@@ -6086,44 +5700,57 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="M31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>45</v>
+      <c r="M31" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N31" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.4">
@@ -6131,44 +5758,57 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="M32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>45</v>
+      <c r="M32" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N32" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="3:25" x14ac:dyDescent="0.4">
@@ -6176,44 +5816,57 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="M33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>45</v>
+      <c r="M33" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N33" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="3:25" x14ac:dyDescent="0.4">
@@ -6221,44 +5874,57 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="M34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>45</v>
+      <c r="M34" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N34" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="3:25" x14ac:dyDescent="0.4">
@@ -6266,44 +5932,57 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="M35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>45</v>
+      <c r="M35" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N35" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="3:25" x14ac:dyDescent="0.4">
@@ -6311,130 +5990,169 @@
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="M36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y36" s="4" t="s">
-        <v>45</v>
+      <c r="M36" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N36" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y36" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="3:25" x14ac:dyDescent="0.4">
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="M37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y37" s="4" t="s">
-        <v>45</v>
+      <c r="M37" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N37" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="3:25" x14ac:dyDescent="0.4">
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="M38" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y38" s="4" t="s">
-        <v>45</v>
+      <c r="M38" s="27" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N38" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="3:25" x14ac:dyDescent="0.4">
@@ -6447,44 +6165,57 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="M39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>45</v>
+      <c r="M39" s="5" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N39" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.4">
@@ -6497,44 +6228,57 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="M40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>45</v>
+      <c r="M40" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N40" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="3:25" x14ac:dyDescent="0.4">
@@ -6547,44 +6291,57 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="M41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>45</v>
+      <c r="M41" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N41" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y41" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.4">
@@ -6597,44 +6354,57 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="M42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y42" s="4" t="s">
-        <v>45</v>
+      <c r="M42" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N42" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y42" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="3:25" x14ac:dyDescent="0.4">
@@ -6647,44 +6417,57 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="M43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y43" s="4" t="s">
-        <v>45</v>
+      <c r="M43" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N43" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y43" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="3:25" x14ac:dyDescent="0.4">
@@ -6697,44 +6480,57 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="M44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y44" s="4" t="s">
-        <v>45</v>
+      <c r="M44" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N44" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y44" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="3:25" x14ac:dyDescent="0.4">
@@ -6747,44 +6543,57 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="M45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>45</v>
+      <c r="M45" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N45" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="3:25" x14ac:dyDescent="0.4">
@@ -6797,44 +6606,57 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="M46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y46" s="4" t="s">
-        <v>45</v>
+      <c r="M46" s="4" t="str">
+        <f ca="1"/>
+        <v>autocall strike 76 KO 100 CPN 36 6 periods of 1m</v>
+      </c>
+      <c r="N46" s="4">
+        <f ca="1"/>
+        <v>0.96495976051676235</v>
+      </c>
+      <c r="O46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y46" s="4" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="3:25" x14ac:dyDescent="0.4">
@@ -6859,18 +6681,15 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="M48" s="4" t="str">
-        <f t="array" aca="1" ref="M48:N104" ca="1">_xll.xAADrisk(H16,H27,H28,TRUE,,,N19,N20)</f>
+        <f t="array" aca="1" ref="M48:N104" ca="1">_xll.xAADrisk(D16,D27,D28,TRUE,,,N19,N20)</f>
         <v>value</v>
       </c>
       <c r="N48" s="8">
         <f ca="1"/>
-        <v>1.0409359182837492</v>
-      </c>
-      <c r="O48" s="8">
-        <v>1.1120599717823247</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.4">
+        <v>0.96495976051676247</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -6889,13 +6708,10 @@
       </c>
       <c r="N49" s="24">
         <f ca="1"/>
-        <v>-0.42357714197936824</v>
-      </c>
-      <c r="O49" s="24">
-        <v>-0.33932891814532651</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.4">
+        <v>-0.1147608559187607</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -6910,17 +6726,14 @@
       </c>
       <c r="M50" t="str">
         <f ca="1"/>
-        <v>spot google</v>
-      </c>
-      <c r="N50" s="24">
-        <f ca="1"/>
-        <v>-1.7347234759768072E-19</v>
-      </c>
-      <c r="O50" s="24">
-        <v>-1.332267629550188E-19</v>
-      </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.4">
+        <v>spot uber</v>
+      </c>
+      <c r="N50" s="8">
+        <f ca="1"/>
+        <v>8.4753531785410605E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -6935,17 +6748,14 @@
       </c>
       <c r="M51" t="str">
         <f ca="1"/>
-        <v>spot amazon</v>
-      </c>
-      <c r="N51" s="26">
-        <f ca="1"/>
-        <v>1.5211653632391489E-3</v>
-      </c>
-      <c r="O51" s="26">
-        <v>1.3570248409156336E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.4">
+        <v>spot lyft</v>
+      </c>
+      <c r="N51" s="31">
+        <f ca="1"/>
+        <v>8.2817410998347761E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -6960,17 +6770,14 @@
       </c>
       <c r="M52" t="str">
         <f ca="1"/>
-        <v>spot starbucks</v>
-      </c>
-      <c r="N52" s="24">
-        <f ca="1"/>
-        <v>-4.336808689942018E-20</v>
-      </c>
-      <c r="O52" s="24">
-        <v>2.5757174171303634E-18</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.4">
+        <v>spot luckin</v>
+      </c>
+      <c r="N52" s="8">
+        <f ca="1"/>
+        <v>4.3564639889824208E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -6985,17 +6792,14 @@
       </c>
       <c r="M53" t="str">
         <f ca="1"/>
-        <v>repo rate google</v>
+        <v>repo spread uber</v>
       </c>
       <c r="N53" s="24">
         <f ca="1"/>
-        <v>-1.9040928730446001E-2</v>
-      </c>
-      <c r="O53" s="24">
-        <v>-8.2832664144430121E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.4">
+        <v>-2.858083270914898E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -7010,17 +6814,14 @@
       </c>
       <c r="M54" t="str">
         <f ca="1"/>
-        <v>repo rate amazon</v>
+        <v>repo spread lyft</v>
       </c>
       <c r="N54" s="24">
         <f ca="1"/>
-        <v>-6.456297113668687E-3</v>
-      </c>
-      <c r="O54" s="24">
-        <v>-8.2632361783239558E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.4">
+        <v>-7.0428767478183302E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -7035,17 +6836,14 @@
       </c>
       <c r="M55" t="str">
         <f ca="1"/>
-        <v>repo rate starbucks</v>
+        <v>repo spread luckin</v>
       </c>
       <c r="N55" s="24">
         <f ca="1"/>
-        <v>-6.6117537268225394E-3</v>
-      </c>
-      <c r="O55" s="24">
-        <v>-8.2954966509760031E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.4">
+        <v>-7.9014360190003866E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -7060,17 +6858,14 @@
       </c>
       <c r="M56" t="str">
         <f ca="1"/>
-        <v>div google 0.25</v>
+        <v>div uber 0.25</v>
       </c>
       <c r="N56" s="24">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="24">
-        <v>4.5328687184502746E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.4">
+        <v>-5.89291818494658E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -7085,17 +6880,14 @@
       </c>
       <c r="M57" t="str">
         <f ca="1"/>
-        <v>div amazon 0.25</v>
+        <v>div lyft 0.25</v>
       </c>
       <c r="N57" s="24">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="24">
-        <v>4.6061305755631124E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.4">
+        <v>-0.11769615504528579</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -7110,17 +6902,14 @@
       </c>
       <c r="M58" t="str">
         <f ca="1"/>
-        <v>div starbucks 0.25</v>
+        <v>div luckin 0.25</v>
       </c>
       <c r="N58" s="24">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="24">
-        <v>4.5958302025835E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.4">
+        <v>-0.14837682083622522</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -7135,17 +6924,14 @@
       </c>
       <c r="M59" t="str">
         <f ca="1"/>
-        <v>div google 0.75</v>
+        <v>div uber 0.75</v>
       </c>
       <c r="N59" s="24">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="O59" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -7160,17 +6946,14 @@
       </c>
       <c r="M60" t="str">
         <f ca="1"/>
-        <v>div amazon 0.75</v>
+        <v>div lyft 0.75</v>
       </c>
       <c r="N60" s="24">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="O60" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -7185,161 +6968,131 @@
       </c>
       <c r="M61" t="str">
         <f ca="1"/>
-        <v>div starbucks 0.75</v>
+        <v>div luckin 0.75</v>
       </c>
       <c r="N61" s="24">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="O61" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
       <c r="L62">
         <v>13</v>
       </c>
       <c r="M62" t="str">
         <f ca="1"/>
-        <v>ATM google</v>
+        <v>ATM uber</v>
       </c>
       <c r="N62" s="24">
         <f ca="1"/>
-        <v>1.1991606617264722E-2</v>
-      </c>
-      <c r="O62" s="24">
-        <v>0.1238281902600203</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.4">
+        <v>-7.2689795180755912E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
       <c r="L63" s="28">
         <v>14</v>
       </c>
       <c r="M63" s="28" t="str">
         <f ca="1"/>
-        <v>ATM amazon</v>
+        <v>ATM lyft</v>
       </c>
       <c r="N63" s="29">
         <f ca="1"/>
-        <v>1.5296053495957573</v>
-      </c>
-      <c r="O63" s="29">
-        <v>13.700456469008763</v>
-      </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.4">
+        <v>-0.15504777779332335</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
       <c r="L64">
         <v>15</v>
       </c>
       <c r="M64" t="str">
         <f ca="1"/>
-        <v>ATM starbucks</v>
+        <v>ATM luckin</v>
       </c>
       <c r="N64" s="24">
         <f ca="1"/>
-        <v>1.4389819886095639E-2</v>
-      </c>
-      <c r="O64" s="24">
-        <v>0.13109573163161892</v>
-      </c>
-    </row>
-    <row r="65" spans="12:15" x14ac:dyDescent="0.4">
+        <v>-0.16802184695029357</v>
+      </c>
+    </row>
+    <row r="65" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L65">
         <v>16</v>
       </c>
       <c r="M65" t="str">
         <f ca="1"/>
-        <v>skew google</v>
+        <v>skew uber</v>
       </c>
       <c r="N65" s="26">
         <f ca="1"/>
-        <v>7.0891479884447326E-4</v>
-      </c>
-      <c r="O65" s="26">
-        <v>-9.6368897834913699E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="12:15" x14ac:dyDescent="0.4">
+        <v>2.6636703664252876E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L66" s="28">
         <v>17</v>
       </c>
       <c r="M66" s="28" t="str">
         <f ca="1"/>
-        <v>skew amazon</v>
+        <v>skew lyft</v>
       </c>
       <c r="N66" s="30">
         <f ca="1"/>
-        <v>1.5215415668588688</v>
-      </c>
-      <c r="O66" s="30">
-        <v>13.574169857838756</v>
-      </c>
-    </row>
-    <row r="67" spans="12:15" x14ac:dyDescent="0.4">
+        <v>5.9137145144274379E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L67">
         <v>18</v>
       </c>
       <c r="M67" t="str">
         <f ca="1"/>
-        <v>skew starbucks</v>
+        <v>skew luckin</v>
       </c>
       <c r="N67" s="24">
         <f ca="1"/>
-        <v>-1.6065837361359803E-4</v>
-      </c>
-      <c r="O67" s="24">
-        <v>3.8260914657908419E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="12:15" x14ac:dyDescent="0.4">
+        <v>7.4092312588810466E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L68">
         <v>19</v>
       </c>
       <c r="M68" t="str">
         <f ca="1"/>
-        <v>correl amazon google</v>
+        <v>correl lyft uber</v>
       </c>
       <c r="N68" s="24">
         <f ca="1"/>
-        <v>-8.7094124482552939E-4</v>
-      </c>
-      <c r="O68" s="24">
-        <v>-9.002093705639945E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="12:15" x14ac:dyDescent="0.4">
+        <v>8.2534884478533584E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L69">
         <v>20</v>
       </c>
       <c r="M69" t="str">
         <f ca="1"/>
-        <v>correl starbucks google</v>
+        <v>correl luckin uber</v>
       </c>
       <c r="N69" s="24">
         <f ca="1"/>
-        <v>-8.8359965978655557E-4</v>
-      </c>
-      <c r="O69" s="24">
-        <v>-2.1595834516586663E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="12:15" x14ac:dyDescent="0.4">
+        <v>6.0410904294307347E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L70">
         <v>21</v>
       </c>
       <c r="M70" t="str">
         <f ca="1"/>
-        <v>correl starbucks amazon</v>
+        <v>correl luckin lyft</v>
       </c>
       <c r="N70" s="24">
         <f ca="1"/>
-        <v>-1.52116536323916E-3</v>
-      </c>
-      <c r="O70" s="24">
-        <v>-8.9267084118368045E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="12:15" x14ac:dyDescent="0.4">
+        <v>1.7588752186493046E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="12:14" x14ac:dyDescent="0.4">
       <c r="L71">
         <v>22</v>
       </c>
@@ -7349,13 +7102,10 @@
       </c>
       <c r="N71" s="24">
         <f ca="1"/>
-        <v>-3.9132719713038493E-3</v>
-      </c>
-      <c r="O71" s="24">
-        <v>-2.6845825951394706E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="12:15" x14ac:dyDescent="0.4">
+        <v>3.0707491088887599E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M72" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7365,7 +7115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M73" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7375,7 +7125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M74" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7385,7 +7135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M75" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7395,7 +7145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M76" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7405,7 +7155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M77" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7415,7 +7165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M78" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7425,7 +7175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M79" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -7435,7 +7185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="12:14" x14ac:dyDescent="0.4">
       <c r="M80" t="e">
         <f ca="1"/>
         <v>#N/A</v>
